--- a/Data Sources/Energy Bills/ElectricityUnit.xlsx
+++ b/Data Sources/Energy Bills/ElectricityUnit.xlsx
@@ -5,17 +5,17 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/48530ed5e3c44a15/Documents/GitHub/ScottishEnergyStatsProcessing/Data Sources/Energy Bills/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Statistics\Prices Team\Quarterly Prices Publication QEP\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{AF24BEC1-2F52-4770-A559-8C17F057C019}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D708A670-D755-415D-86C0-7CE03A1F6CF3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF24BEC1-2F52-4770-A559-8C17F057C019}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="15855" windowWidth="29040" windowHeight="15840" tabRatio="806" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="806" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="33" r:id="rId1"/>
     <sheet name="Metadata" sheetId="5" r:id="rId2"/>
-    <sheet name="Standard" sheetId="40" r:id="rId3"/>
+    <sheet name="2019 Standard Electricity" sheetId="40" r:id="rId3"/>
     <sheet name="2019 Economy 7 Electricity" sheetId="41" r:id="rId4"/>
     <sheet name="2018 Standard Electricity " sheetId="44" state="hidden" r:id="rId5"/>
     <sheet name="2018 Economy 7 Electricity " sheetId="45" state="hidden" r:id="rId6"/>
@@ -51,8 +51,8 @@
     <definedName name="_xlnm.Print_Area" localSheetId="5">'2018 Economy 7 Electricity '!$A$1:$P$35</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'2018 Standard Electricity '!$A$1:$M$41</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'2019 Economy 7 Electricity'!$A$1:$P$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'2019 Standard Electricity'!$A$1:$M$41</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Metadata!$A$1:$A$24</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">Standard!$A$1:$M$41</definedName>
     <definedName name="t25Q2">#REF!</definedName>
     <definedName name="table_25_Q2">#REF!</definedName>
   </definedNames>
@@ -3556,15 +3556,15 @@
   </sheetPr>
   <dimension ref="A1:P100"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="3.7265625" customWidth="1"/>
-    <col min="4" max="4" width="9.7265625" customWidth="1"/>
-    <col min="5" max="5" width="16.7265625" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="12.75" customHeight="1">
@@ -4360,20 +4360,20 @@
       <selection sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="9.42578125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="13.453125" style="10" customWidth="1"/>
-    <col min="2" max="3" width="17.54296875" style="11" customWidth="1"/>
-    <col min="4" max="4" width="17.54296875" style="10" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" style="10" customWidth="1"/>
+    <col min="2" max="3" width="17.5703125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="10" customWidth="1"/>
     <col min="5" max="5" width="4" style="10" customWidth="1"/>
-    <col min="6" max="7" width="17.54296875" style="11" customWidth="1"/>
-    <col min="8" max="8" width="17.54296875" style="10" customWidth="1"/>
-    <col min="9" max="9" width="2.453125" style="10" customWidth="1"/>
-    <col min="10" max="11" width="17.54296875" style="11" customWidth="1"/>
-    <col min="12" max="12" width="17.54296875" style="10" customWidth="1"/>
-    <col min="13" max="13" width="2.54296875" style="10" customWidth="1"/>
-    <col min="14" max="16" width="17.54296875" style="10" customWidth="1"/>
-    <col min="17" max="16384" width="9.453125" style="10"/>
+    <col min="6" max="7" width="17.5703125" style="11" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" style="10" customWidth="1"/>
+    <col min="9" max="9" width="2.42578125" style="10" customWidth="1"/>
+    <col min="10" max="11" width="17.5703125" style="11" customWidth="1"/>
+    <col min="12" max="12" width="17.5703125" style="10" customWidth="1"/>
+    <col min="13" max="13" width="2.5703125" style="10" customWidth="1"/>
+    <col min="14" max="16" width="17.5703125" style="10" customWidth="1"/>
+    <col min="17" max="16384" width="9.42578125" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="16.5" customHeight="1">
@@ -5695,20 +5695,20 @@
       <selection activeCell="N36" sqref="N36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="9.42578125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="22.453125" style="10" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" style="10" customWidth="1"/>
     <col min="2" max="2" width="10" style="11" customWidth="1"/>
     <col min="3" max="3" width="10" style="10" customWidth="1"/>
-    <col min="4" max="4" width="4.54296875" style="10" customWidth="1"/>
+    <col min="4" max="4" width="4.5703125" style="10" customWidth="1"/>
     <col min="5" max="5" width="10" style="11" customWidth="1"/>
     <col min="6" max="6" width="10" style="10" customWidth="1"/>
-    <col min="7" max="7" width="4.453125" style="10" customWidth="1"/>
+    <col min="7" max="7" width="4.42578125" style="10" customWidth="1"/>
     <col min="8" max="8" width="10" style="11" customWidth="1"/>
     <col min="9" max="9" width="10" style="10" customWidth="1"/>
-    <col min="10" max="10" width="4.453125" style="10" customWidth="1"/>
-    <col min="11" max="12" width="11.453125" style="10" customWidth="1"/>
-    <col min="13" max="16384" width="9.453125" style="10"/>
+    <col min="10" max="10" width="4.42578125" style="10" customWidth="1"/>
+    <col min="11" max="12" width="11.42578125" style="10" customWidth="1"/>
+    <col min="13" max="16384" width="9.42578125" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="16.5" customHeight="1">
@@ -6319,49 +6319,49 @@
       <c r="I22" s="24"/>
       <c r="J22" s="24"/>
     </row>
-    <row r="23" spans="1:12" s="20" customFormat="1" ht="11.5">
+    <row r="23" spans="1:12" s="20" customFormat="1" ht="12">
       <c r="A23" s="20" t="s">
         <v>22</v>
       </c>
       <c r="E23" s="21"/>
       <c r="H23" s="21"/>
     </row>
-    <row r="24" spans="1:12" s="20" customFormat="1" ht="11.5">
+    <row r="24" spans="1:12" s="20" customFormat="1" ht="12">
       <c r="A24" s="20" t="s">
         <v>23</v>
       </c>
       <c r="E24" s="21"/>
       <c r="H24" s="21"/>
     </row>
-    <row r="25" spans="1:12" s="20" customFormat="1" ht="11.5">
+    <row r="25" spans="1:12" s="20" customFormat="1" ht="12">
       <c r="A25" s="20" t="s">
         <v>93</v>
       </c>
       <c r="E25" s="21"/>
       <c r="H25" s="21"/>
     </row>
-    <row r="26" spans="1:12" s="20" customFormat="1" ht="11.5">
+    <row r="26" spans="1:12" s="20" customFormat="1" ht="12">
       <c r="A26" s="20" t="s">
         <v>94</v>
       </c>
       <c r="E26" s="21"/>
       <c r="H26" s="21"/>
     </row>
-    <row r="27" spans="1:12" s="20" customFormat="1" ht="11.5">
+    <row r="27" spans="1:12" s="20" customFormat="1" ht="12">
       <c r="A27" s="20" t="s">
         <v>95</v>
       </c>
       <c r="E27" s="21"/>
       <c r="H27" s="21"/>
     </row>
-    <row r="28" spans="1:12" s="20" customFormat="1" ht="11.5">
+    <row r="28" spans="1:12" s="20" customFormat="1" ht="12">
       <c r="A28" s="20" t="s">
         <v>96</v>
       </c>
       <c r="E28" s="21"/>
       <c r="H28" s="21"/>
     </row>
-    <row r="29" spans="1:12" s="20" customFormat="1" ht="11.5">
+    <row r="29" spans="1:12" s="20" customFormat="1" ht="12">
       <c r="A29" s="20" t="s">
         <v>27</v>
       </c>
@@ -6382,7 +6382,7 @@
       <c r="I30" s="159"/>
       <c r="J30" s="35"/>
     </row>
-    <row r="31" spans="1:12" s="20" customFormat="1" ht="11.5">
+    <row r="31" spans="1:12" s="20" customFormat="1" ht="12">
       <c r="A31" s="159"/>
       <c r="B31" s="159"/>
       <c r="C31" s="159"/>
@@ -6397,7 +6397,7 @@
     <row r="32" spans="1:12">
       <c r="A32" s="46"/>
     </row>
-    <row r="33" spans="1:16" ht="13">
+    <row r="33" spans="1:16">
       <c r="A33" s="40"/>
       <c r="B33" s="41"/>
       <c r="C33" s="40"/>
@@ -6435,7 +6435,7 @@
       <c r="O34"/>
       <c r="P34" s="40"/>
     </row>
-    <row r="35" spans="1:16" ht="13">
+    <row r="35" spans="1:16">
       <c r="A35" s="39"/>
       <c r="B35" s="72"/>
       <c r="C35" s="72"/>
@@ -6453,7 +6453,7 @@
       <c r="O35"/>
       <c r="P35" s="40"/>
     </row>
-    <row r="36" spans="1:16" ht="13">
+    <row r="36" spans="1:16">
       <c r="A36" s="39"/>
       <c r="B36" s="72"/>
       <c r="C36" s="72"/>
@@ -6471,7 +6471,7 @@
       <c r="O36"/>
       <c r="P36" s="40"/>
     </row>
-    <row r="37" spans="1:16" ht="13">
+    <row r="37" spans="1:16">
       <c r="A37" s="39"/>
       <c r="B37" s="72"/>
       <c r="C37" s="72"/>
@@ -6489,7 +6489,7 @@
       <c r="O37"/>
       <c r="P37" s="40"/>
     </row>
-    <row r="38" spans="1:16" ht="13">
+    <row r="38" spans="1:16">
       <c r="A38" s="39"/>
       <c r="B38" s="72"/>
       <c r="C38" s="72"/>
@@ -6507,7 +6507,7 @@
       <c r="O38"/>
       <c r="P38" s="40"/>
     </row>
-    <row r="39" spans="1:16" ht="13">
+    <row r="39" spans="1:16">
       <c r="A39" s="39"/>
       <c r="B39" s="72"/>
       <c r="C39" s="72"/>
@@ -6525,7 +6525,7 @@
       <c r="O39"/>
       <c r="P39" s="40"/>
     </row>
-    <row r="40" spans="1:16" ht="13">
+    <row r="40" spans="1:16">
       <c r="A40" s="39"/>
       <c r="B40" s="72"/>
       <c r="C40" s="72"/>
@@ -6543,7 +6543,7 @@
       <c r="O40"/>
       <c r="P40" s="40"/>
     </row>
-    <row r="41" spans="1:16" ht="13">
+    <row r="41" spans="1:16">
       <c r="A41" s="39"/>
       <c r="B41" s="72"/>
       <c r="C41" s="72"/>
@@ -6561,7 +6561,7 @@
       <c r="O41"/>
       <c r="P41" s="40"/>
     </row>
-    <row r="42" spans="1:16" ht="13">
+    <row r="42" spans="1:16">
       <c r="A42" s="39"/>
       <c r="B42" s="72"/>
       <c r="C42" s="72"/>
@@ -6579,7 +6579,7 @@
       <c r="O42"/>
       <c r="P42" s="40"/>
     </row>
-    <row r="43" spans="1:16" ht="13">
+    <row r="43" spans="1:16">
       <c r="A43" s="39"/>
       <c r="B43" s="72"/>
       <c r="C43" s="72"/>
@@ -6597,7 +6597,7 @@
       <c r="O43"/>
       <c r="P43" s="40"/>
     </row>
-    <row r="44" spans="1:16" ht="13">
+    <row r="44" spans="1:16">
       <c r="A44" s="39"/>
       <c r="B44" s="72"/>
       <c r="C44" s="72"/>
@@ -6615,7 +6615,7 @@
       <c r="O44"/>
       <c r="P44" s="40"/>
     </row>
-    <row r="45" spans="1:16" ht="13">
+    <row r="45" spans="1:16">
       <c r="A45" s="39"/>
       <c r="B45" s="72"/>
       <c r="C45" s="72"/>
@@ -6633,7 +6633,7 @@
       <c r="O45"/>
       <c r="P45" s="40"/>
     </row>
-    <row r="46" spans="1:16" ht="13">
+    <row r="46" spans="1:16">
       <c r="A46" s="39"/>
       <c r="B46" s="72"/>
       <c r="C46" s="72"/>
@@ -6651,7 +6651,7 @@
       <c r="O46"/>
       <c r="P46" s="40"/>
     </row>
-    <row r="47" spans="1:16" ht="13">
+    <row r="47" spans="1:16">
       <c r="A47" s="39"/>
       <c r="B47" s="72"/>
       <c r="C47" s="72"/>
@@ -6843,20 +6843,20 @@
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="9.42578125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="13.453125" style="10" customWidth="1"/>
-    <col min="2" max="3" width="17.54296875" style="11" customWidth="1"/>
-    <col min="4" max="4" width="17.54296875" style="10" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" style="10" customWidth="1"/>
+    <col min="2" max="3" width="17.5703125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="10" customWidth="1"/>
     <col min="5" max="5" width="4" style="10" customWidth="1"/>
-    <col min="6" max="7" width="17.54296875" style="11" customWidth="1"/>
-    <col min="8" max="8" width="17.54296875" style="10" customWidth="1"/>
-    <col min="9" max="9" width="2.453125" style="10" customWidth="1"/>
-    <col min="10" max="11" width="17.54296875" style="11" customWidth="1"/>
-    <col min="12" max="12" width="17.54296875" style="10" customWidth="1"/>
-    <col min="13" max="13" width="2.54296875" style="10" customWidth="1"/>
-    <col min="14" max="16" width="17.54296875" style="10" customWidth="1"/>
-    <col min="17" max="16384" width="9.453125" style="10"/>
+    <col min="6" max="7" width="17.5703125" style="11" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" style="10" customWidth="1"/>
+    <col min="9" max="9" width="2.42578125" style="10" customWidth="1"/>
+    <col min="10" max="11" width="17.5703125" style="11" customWidth="1"/>
+    <col min="12" max="12" width="17.5703125" style="10" customWidth="1"/>
+    <col min="13" max="13" width="2.5703125" style="10" customWidth="1"/>
+    <col min="14" max="16" width="17.5703125" style="10" customWidth="1"/>
+    <col min="17" max="16384" width="9.42578125" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="16.5" customHeight="1">
@@ -7681,7 +7681,7 @@
       <c r="K22" s="21"/>
       <c r="L22" s="24"/>
     </row>
-    <row r="23" spans="1:16" s="20" customFormat="1" ht="11.5">
+    <row r="23" spans="1:16" s="20" customFormat="1" ht="12">
       <c r="A23" s="20" t="s">
         <v>22</v>
       </c>
@@ -7690,7 +7690,7 @@
       <c r="J23" s="21"/>
       <c r="K23" s="21"/>
     </row>
-    <row r="24" spans="1:16" s="20" customFormat="1" ht="11.5">
+    <row r="24" spans="1:16" s="20" customFormat="1" ht="12">
       <c r="A24" s="20" t="s">
         <v>23</v>
       </c>
@@ -7699,7 +7699,7 @@
       <c r="J24" s="21"/>
       <c r="K24" s="21"/>
     </row>
-    <row r="25" spans="1:16" s="20" customFormat="1" ht="11.5">
+    <row r="25" spans="1:16" s="20" customFormat="1" ht="12">
       <c r="A25" s="20" t="s">
         <v>62</v>
       </c>
@@ -7708,12 +7708,12 @@
       <c r="J25" s="21"/>
       <c r="K25" s="21"/>
     </row>
-    <row r="26" spans="1:16" s="20" customFormat="1" ht="11.5">
+    <row r="26" spans="1:16" s="20" customFormat="1" ht="12">
       <c r="A26" s="20" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:16" s="20" customFormat="1" ht="11.5">
+    <row r="27" spans="1:16" s="20" customFormat="1" ht="12">
       <c r="A27" s="20" t="s">
         <v>27</v>
       </c>
@@ -8075,20 +8075,20 @@
       <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="9.42578125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="17.54296875" style="10" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" style="10" customWidth="1"/>
     <col min="2" max="2" width="10" style="11" customWidth="1"/>
     <col min="3" max="3" width="10" style="10" customWidth="1"/>
-    <col min="4" max="4" width="4.54296875" style="10" customWidth="1"/>
+    <col min="4" max="4" width="4.5703125" style="10" customWidth="1"/>
     <col min="5" max="5" width="10" style="11" customWidth="1"/>
     <col min="6" max="6" width="10" style="10" customWidth="1"/>
-    <col min="7" max="7" width="4.453125" style="10" customWidth="1"/>
+    <col min="7" max="7" width="4.42578125" style="10" customWidth="1"/>
     <col min="8" max="8" width="10" style="11" customWidth="1"/>
     <col min="9" max="9" width="10" style="10" customWidth="1"/>
-    <col min="10" max="10" width="4.453125" style="10" customWidth="1"/>
-    <col min="11" max="12" width="11.453125" style="10" customWidth="1"/>
-    <col min="13" max="16384" width="9.453125" style="10"/>
+    <col min="10" max="10" width="4.42578125" style="10" customWidth="1"/>
+    <col min="11" max="12" width="11.42578125" style="10" customWidth="1"/>
+    <col min="13" max="16384" width="9.42578125" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="16.5" customHeight="1">
@@ -8699,49 +8699,49 @@
       <c r="I22" s="24"/>
       <c r="J22" s="24"/>
     </row>
-    <row r="23" spans="1:12" s="20" customFormat="1" ht="11.5">
+    <row r="23" spans="1:12" s="20" customFormat="1" ht="12">
       <c r="A23" s="20" t="s">
         <v>22</v>
       </c>
       <c r="E23" s="21"/>
       <c r="H23" s="21"/>
     </row>
-    <row r="24" spans="1:12" s="20" customFormat="1" ht="11.5">
+    <row r="24" spans="1:12" s="20" customFormat="1" ht="12">
       <c r="A24" s="20" t="s">
         <v>23</v>
       </c>
       <c r="E24" s="21"/>
       <c r="H24" s="21"/>
     </row>
-    <row r="25" spans="1:12" s="20" customFormat="1" ht="11.5">
+    <row r="25" spans="1:12" s="20" customFormat="1" ht="12">
       <c r="A25" s="20" t="s">
         <v>93</v>
       </c>
       <c r="E25" s="21"/>
       <c r="H25" s="21"/>
     </row>
-    <row r="26" spans="1:12" s="20" customFormat="1" ht="11.5">
+    <row r="26" spans="1:12" s="20" customFormat="1" ht="12">
       <c r="A26" s="20" t="s">
         <v>94</v>
       </c>
       <c r="E26" s="21"/>
       <c r="H26" s="21"/>
     </row>
-    <row r="27" spans="1:12" s="20" customFormat="1" ht="11.5">
+    <row r="27" spans="1:12" s="20" customFormat="1" ht="12">
       <c r="A27" s="20" t="s">
         <v>95</v>
       </c>
       <c r="E27" s="21"/>
       <c r="H27" s="21"/>
     </row>
-    <row r="28" spans="1:12" s="20" customFormat="1" ht="11.5">
+    <row r="28" spans="1:12" s="20" customFormat="1" ht="12">
       <c r="A28" s="20" t="s">
         <v>96</v>
       </c>
       <c r="E28" s="21"/>
       <c r="H28" s="21"/>
     </row>
-    <row r="29" spans="1:12" s="20" customFormat="1" ht="11.5">
+    <row r="29" spans="1:12" s="20" customFormat="1" ht="12">
       <c r="A29" s="20" t="s">
         <v>27</v>
       </c>
@@ -8762,7 +8762,7 @@
       <c r="I30" s="159"/>
       <c r="J30" s="35"/>
     </row>
-    <row r="31" spans="1:12" s="20" customFormat="1" ht="11.5">
+    <row r="31" spans="1:12" s="20" customFormat="1" ht="12">
       <c r="A31" s="159"/>
       <c r="B31" s="159"/>
       <c r="C31" s="159"/>
@@ -8777,7 +8777,7 @@
     <row r="32" spans="1:12">
       <c r="A32" s="15"/>
     </row>
-    <row r="33" spans="1:15" ht="13">
+    <row r="33" spans="1:15">
       <c r="I33" s="67"/>
       <c r="K33" s="52"/>
       <c r="L33" s="68"/>
@@ -8803,7 +8803,7 @@
       <c r="N34" s="68"/>
       <c r="O34" s="52"/>
     </row>
-    <row r="35" spans="1:15" ht="13">
+    <row r="35" spans="1:15">
       <c r="A35" s="20"/>
       <c r="B35" s="69"/>
       <c r="C35" s="69"/>
@@ -8819,7 +8819,7 @@
       <c r="N35" s="68"/>
       <c r="O35" s="52"/>
     </row>
-    <row r="36" spans="1:15" ht="13">
+    <row r="36" spans="1:15">
       <c r="A36" s="20"/>
       <c r="B36" s="69"/>
       <c r="C36" s="69"/>
@@ -8835,7 +8835,7 @@
       <c r="N36" s="68"/>
       <c r="O36" s="52"/>
     </row>
-    <row r="37" spans="1:15" ht="13">
+    <row r="37" spans="1:15">
       <c r="A37" s="20"/>
       <c r="B37" s="69"/>
       <c r="C37" s="69"/>
@@ -8851,7 +8851,7 @@
       <c r="N37" s="68"/>
       <c r="O37" s="52"/>
     </row>
-    <row r="38" spans="1:15" ht="13">
+    <row r="38" spans="1:15">
       <c r="A38" s="20"/>
       <c r="B38" s="69"/>
       <c r="C38" s="69"/>
@@ -8867,7 +8867,7 @@
       <c r="N38" s="68"/>
       <c r="O38" s="52"/>
     </row>
-    <row r="39" spans="1:15" ht="13">
+    <row r="39" spans="1:15">
       <c r="A39" s="20"/>
       <c r="B39" s="69"/>
       <c r="C39" s="69"/>
@@ -8883,7 +8883,7 @@
       <c r="N39" s="68"/>
       <c r="O39" s="52"/>
     </row>
-    <row r="40" spans="1:15" ht="13">
+    <row r="40" spans="1:15">
       <c r="A40" s="20"/>
       <c r="B40" s="69"/>
       <c r="C40" s="69"/>
@@ -8899,7 +8899,7 @@
       <c r="N40" s="68"/>
       <c r="O40" s="52"/>
     </row>
-    <row r="41" spans="1:15" ht="13">
+    <row r="41" spans="1:15">
       <c r="A41" s="20"/>
       <c r="B41" s="69"/>
       <c r="C41" s="69"/>
@@ -8915,7 +8915,7 @@
       <c r="N41" s="68"/>
       <c r="O41" s="52"/>
     </row>
-    <row r="42" spans="1:15" ht="13">
+    <row r="42" spans="1:15">
       <c r="A42" s="20"/>
       <c r="B42" s="69"/>
       <c r="C42" s="69"/>
@@ -8931,7 +8931,7 @@
       <c r="N42" s="68"/>
       <c r="O42" s="52"/>
     </row>
-    <row r="43" spans="1:15" ht="13">
+    <row r="43" spans="1:15">
       <c r="A43" s="20"/>
       <c r="B43" s="69"/>
       <c r="C43" s="69"/>
@@ -8947,7 +8947,7 @@
       <c r="N43" s="68"/>
       <c r="O43" s="52"/>
     </row>
-    <row r="44" spans="1:15" ht="13">
+    <row r="44" spans="1:15">
       <c r="A44" s="20"/>
       <c r="B44" s="69"/>
       <c r="C44" s="69"/>
@@ -8963,7 +8963,7 @@
       <c r="N44" s="68"/>
       <c r="O44" s="52"/>
     </row>
-    <row r="45" spans="1:15" ht="13">
+    <row r="45" spans="1:15">
       <c r="A45" s="20"/>
       <c r="B45" s="69"/>
       <c r="C45" s="69"/>
@@ -8979,7 +8979,7 @@
       <c r="N45" s="68"/>
       <c r="O45" s="52"/>
     </row>
-    <row r="46" spans="1:15" ht="13">
+    <row r="46" spans="1:15">
       <c r="A46" s="20"/>
       <c r="B46" s="69"/>
       <c r="C46" s="69"/>
@@ -8995,7 +8995,7 @@
       <c r="N46" s="68"/>
       <c r="O46" s="52"/>
     </row>
-    <row r="47" spans="1:15" ht="13">
+    <row r="47" spans="1:15">
       <c r="A47" s="20"/>
       <c r="B47" s="69"/>
       <c r="C47" s="69"/>
@@ -9091,20 +9091,20 @@
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="9.42578125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="13.453125" style="10" customWidth="1"/>
-    <col min="2" max="3" width="17.54296875" style="11" customWidth="1"/>
-    <col min="4" max="4" width="17.54296875" style="10" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" style="10" customWidth="1"/>
+    <col min="2" max="3" width="17.5703125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="10" customWidth="1"/>
     <col min="5" max="5" width="4" style="10" customWidth="1"/>
-    <col min="6" max="7" width="17.54296875" style="11" customWidth="1"/>
-    <col min="8" max="8" width="17.54296875" style="10" customWidth="1"/>
-    <col min="9" max="9" width="2.453125" style="10" customWidth="1"/>
-    <col min="10" max="11" width="17.54296875" style="11" customWidth="1"/>
-    <col min="12" max="12" width="17.54296875" style="10" customWidth="1"/>
-    <col min="13" max="13" width="2.54296875" style="10" customWidth="1"/>
-    <col min="14" max="16" width="17.54296875" style="10" customWidth="1"/>
-    <col min="17" max="16384" width="9.453125" style="10"/>
+    <col min="6" max="7" width="17.5703125" style="11" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" style="10" customWidth="1"/>
+    <col min="9" max="9" width="2.42578125" style="10" customWidth="1"/>
+    <col min="10" max="11" width="17.5703125" style="11" customWidth="1"/>
+    <col min="12" max="12" width="17.5703125" style="10" customWidth="1"/>
+    <col min="13" max="13" width="2.5703125" style="10" customWidth="1"/>
+    <col min="14" max="16" width="17.5703125" style="10" customWidth="1"/>
+    <col min="17" max="16384" width="9.42578125" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="16.5" customHeight="1">
@@ -9929,7 +9929,7 @@
       <c r="K22" s="21"/>
       <c r="L22" s="24"/>
     </row>
-    <row r="23" spans="1:16" s="20" customFormat="1" ht="11.5">
+    <row r="23" spans="1:16" s="20" customFormat="1" ht="12">
       <c r="A23" s="20" t="s">
         <v>22</v>
       </c>
@@ -9938,7 +9938,7 @@
       <c r="J23" s="21"/>
       <c r="K23" s="21"/>
     </row>
-    <row r="24" spans="1:16" s="20" customFormat="1" ht="11.5">
+    <row r="24" spans="1:16" s="20" customFormat="1" ht="12">
       <c r="A24" s="20" t="s">
         <v>23</v>
       </c>
@@ -9947,7 +9947,7 @@
       <c r="J24" s="21"/>
       <c r="K24" s="21"/>
     </row>
-    <row r="25" spans="1:16" s="20" customFormat="1" ht="11.5">
+    <row r="25" spans="1:16" s="20" customFormat="1" ht="12">
       <c r="A25" s="20" t="s">
         <v>62</v>
       </c>
@@ -9956,12 +9956,12 @@
       <c r="J25" s="21"/>
       <c r="K25" s="21"/>
     </row>
-    <row r="26" spans="1:16" s="20" customFormat="1" ht="11.5">
+    <row r="26" spans="1:16" s="20" customFormat="1" ht="12">
       <c r="A26" s="20" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:16" s="20" customFormat="1" ht="11.5">
+    <row r="27" spans="1:16" s="20" customFormat="1" ht="12">
       <c r="A27" s="20" t="s">
         <v>27</v>
       </c>
@@ -9986,7 +9986,7 @@
       <c r="K28" s="159"/>
       <c r="L28" s="159"/>
     </row>
-    <row r="29" spans="1:16" s="20" customFormat="1" ht="11.5">
+    <row r="29" spans="1:16" s="20" customFormat="1" ht="12">
       <c r="A29" s="159"/>
       <c r="B29" s="159"/>
       <c r="C29" s="159"/>
@@ -10322,20 +10322,20 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="9.42578125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="17.54296875" style="10" customWidth="1"/>
-    <col min="2" max="2" width="17.453125" style="11" customWidth="1"/>
-    <col min="3" max="3" width="17.453125" style="10" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="10" customWidth="1"/>
     <col min="4" max="4" width="4" style="10" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" style="11" customWidth="1"/>
-    <col min="6" max="6" width="17.453125" style="10" customWidth="1"/>
-    <col min="7" max="7" width="2.453125" style="10" customWidth="1"/>
-    <col min="8" max="8" width="17.453125" style="11" customWidth="1"/>
-    <col min="9" max="9" width="17.453125" style="10" customWidth="1"/>
-    <col min="10" max="10" width="2.453125" style="10" customWidth="1"/>
-    <col min="11" max="12" width="17.54296875" style="10" customWidth="1"/>
-    <col min="13" max="16384" width="9.453125" style="10"/>
+    <col min="5" max="5" width="17.42578125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" style="10" customWidth="1"/>
+    <col min="7" max="7" width="2.42578125" style="10" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" style="11" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" style="10" customWidth="1"/>
+    <col min="10" max="10" width="2.42578125" style="10" customWidth="1"/>
+    <col min="11" max="12" width="17.5703125" style="10" customWidth="1"/>
+    <col min="13" max="16384" width="9.42578125" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="16.5" customHeight="1">
@@ -10946,42 +10946,42 @@
       <c r="I22" s="24"/>
       <c r="J22" s="24"/>
     </row>
-    <row r="23" spans="1:16" s="20" customFormat="1" ht="11.5">
+    <row r="23" spans="1:16" s="20" customFormat="1" ht="12">
       <c r="A23" s="20" t="s">
         <v>22</v>
       </c>
       <c r="E23" s="21"/>
       <c r="H23" s="21"/>
     </row>
-    <row r="24" spans="1:16" s="20" customFormat="1" ht="11.5">
+    <row r="24" spans="1:16" s="20" customFormat="1" ht="12">
       <c r="A24" s="20" t="s">
         <v>23</v>
       </c>
       <c r="E24" s="21"/>
       <c r="H24" s="21"/>
     </row>
-    <row r="25" spans="1:16" s="20" customFormat="1" ht="11.5">
+    <row r="25" spans="1:16" s="20" customFormat="1" ht="12">
       <c r="A25" s="20" t="s">
         <v>61</v>
       </c>
       <c r="E25" s="21"/>
       <c r="H25" s="21"/>
     </row>
-    <row r="26" spans="1:16" s="20" customFormat="1" ht="11.5">
+    <row r="26" spans="1:16" s="20" customFormat="1" ht="12">
       <c r="A26" s="20" t="s">
         <v>65</v>
       </c>
       <c r="E26" s="21"/>
       <c r="H26" s="21"/>
     </row>
-    <row r="27" spans="1:16" s="20" customFormat="1" ht="11.5">
+    <row r="27" spans="1:16" s="20" customFormat="1" ht="12">
       <c r="A27" s="20" t="s">
         <v>64</v>
       </c>
       <c r="E27" s="21"/>
       <c r="H27" s="21"/>
     </row>
-    <row r="28" spans="1:16" s="20" customFormat="1" ht="11.5">
+    <row r="28" spans="1:16" s="20" customFormat="1" ht="12">
       <c r="A28" s="20" t="s">
         <v>27</v>
       </c>
@@ -11002,7 +11002,7 @@
       <c r="I29" s="159"/>
       <c r="J29" s="35"/>
     </row>
-    <row r="30" spans="1:16" s="20" customFormat="1" ht="11.5">
+    <row r="30" spans="1:16" s="20" customFormat="1" ht="12">
       <c r="A30" s="159"/>
       <c r="B30" s="159"/>
       <c r="C30" s="159"/>
@@ -11017,7 +11017,7 @@
     <row r="31" spans="1:16">
       <c r="A31" s="46"/>
     </row>
-    <row r="32" spans="1:16" ht="13">
+    <row r="32" spans="1:16">
       <c r="A32" s="40"/>
       <c r="B32" s="41"/>
       <c r="C32" s="40"/>
@@ -11055,7 +11055,7 @@
       <c r="O33"/>
       <c r="P33" s="40"/>
     </row>
-    <row r="34" spans="1:16" ht="13">
+    <row r="34" spans="1:16">
       <c r="A34" s="39"/>
       <c r="B34" s="44"/>
       <c r="C34" s="44"/>
@@ -11073,7 +11073,7 @@
       <c r="O34"/>
       <c r="P34" s="40"/>
     </row>
-    <row r="35" spans="1:16" ht="13">
+    <row r="35" spans="1:16">
       <c r="A35" s="39"/>
       <c r="B35" s="44"/>
       <c r="C35" s="44"/>
@@ -11091,7 +11091,7 @@
       <c r="O35"/>
       <c r="P35" s="40"/>
     </row>
-    <row r="36" spans="1:16" ht="13">
+    <row r="36" spans="1:16">
       <c r="A36" s="39"/>
       <c r="B36" s="44"/>
       <c r="C36" s="44"/>
@@ -11109,7 +11109,7 @@
       <c r="O36"/>
       <c r="P36" s="40"/>
     </row>
-    <row r="37" spans="1:16" ht="13">
+    <row r="37" spans="1:16">
       <c r="A37" s="39"/>
       <c r="B37" s="44"/>
       <c r="C37" s="44"/>
@@ -11127,7 +11127,7 @@
       <c r="O37"/>
       <c r="P37" s="40"/>
     </row>
-    <row r="38" spans="1:16" ht="13">
+    <row r="38" spans="1:16">
       <c r="A38" s="39"/>
       <c r="B38" s="44"/>
       <c r="C38" s="44"/>
@@ -11145,7 +11145,7 @@
       <c r="O38"/>
       <c r="P38" s="40"/>
     </row>
-    <row r="39" spans="1:16" ht="13">
+    <row r="39" spans="1:16">
       <c r="A39" s="39"/>
       <c r="B39" s="44"/>
       <c r="C39" s="44"/>
@@ -11163,7 +11163,7 @@
       <c r="O39"/>
       <c r="P39" s="40"/>
     </row>
-    <row r="40" spans="1:16" ht="13">
+    <row r="40" spans="1:16">
       <c r="A40" s="39"/>
       <c r="B40" s="44"/>
       <c r="C40" s="44"/>
@@ -11181,7 +11181,7 @@
       <c r="O40"/>
       <c r="P40" s="40"/>
     </row>
-    <row r="41" spans="1:16" ht="13">
+    <row r="41" spans="1:16">
       <c r="A41" s="39"/>
       <c r="B41" s="44"/>
       <c r="C41" s="44"/>
@@ -11199,7 +11199,7 @@
       <c r="O41"/>
       <c r="P41" s="40"/>
     </row>
-    <row r="42" spans="1:16" ht="13">
+    <row r="42" spans="1:16">
       <c r="A42" s="39"/>
       <c r="B42" s="44"/>
       <c r="C42" s="44"/>
@@ -11217,7 +11217,7 @@
       <c r="O42"/>
       <c r="P42" s="40"/>
     </row>
-    <row r="43" spans="1:16" ht="13">
+    <row r="43" spans="1:16">
       <c r="A43" s="39"/>
       <c r="B43" s="44"/>
       <c r="C43" s="44"/>
@@ -11235,7 +11235,7 @@
       <c r="O43"/>
       <c r="P43" s="40"/>
     </row>
-    <row r="44" spans="1:16" ht="13">
+    <row r="44" spans="1:16">
       <c r="A44" s="39"/>
       <c r="B44" s="44"/>
       <c r="C44" s="44"/>
@@ -11253,7 +11253,7 @@
       <c r="O44"/>
       <c r="P44" s="40"/>
     </row>
-    <row r="45" spans="1:16" ht="13">
+    <row r="45" spans="1:16">
       <c r="A45" s="39"/>
       <c r="B45" s="44"/>
       <c r="C45" s="44"/>
@@ -11271,7 +11271,7 @@
       <c r="O45"/>
       <c r="P45" s="40"/>
     </row>
-    <row r="46" spans="1:16" ht="13">
+    <row r="46" spans="1:16">
       <c r="A46" s="39"/>
       <c r="B46" s="44"/>
       <c r="C46" s="44"/>
@@ -11465,20 +11465,20 @@
       <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="9.42578125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="13.453125" style="10" customWidth="1"/>
-    <col min="2" max="3" width="17.54296875" style="11" customWidth="1"/>
-    <col min="4" max="4" width="17.54296875" style="10" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" style="10" customWidth="1"/>
+    <col min="2" max="3" width="17.5703125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="10" customWidth="1"/>
     <col min="5" max="5" width="4" style="10" customWidth="1"/>
-    <col min="6" max="7" width="17.54296875" style="11" customWidth="1"/>
-    <col min="8" max="8" width="17.54296875" style="10" customWidth="1"/>
-    <col min="9" max="9" width="2.453125" style="10" customWidth="1"/>
-    <col min="10" max="11" width="17.54296875" style="11" customWidth="1"/>
-    <col min="12" max="12" width="17.54296875" style="10" customWidth="1"/>
-    <col min="13" max="13" width="2.54296875" style="10" customWidth="1"/>
-    <col min="14" max="16" width="17.54296875" style="10" customWidth="1"/>
-    <col min="17" max="16384" width="9.453125" style="10"/>
+    <col min="6" max="7" width="17.5703125" style="11" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" style="10" customWidth="1"/>
+    <col min="9" max="9" width="2.42578125" style="10" customWidth="1"/>
+    <col min="10" max="11" width="17.5703125" style="11" customWidth="1"/>
+    <col min="12" max="12" width="17.5703125" style="10" customWidth="1"/>
+    <col min="13" max="13" width="2.5703125" style="10" customWidth="1"/>
+    <col min="14" max="16" width="17.5703125" style="10" customWidth="1"/>
+    <col min="17" max="16384" width="9.42578125" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="16.5" customHeight="1">
@@ -12303,7 +12303,7 @@
       <c r="K22" s="21"/>
       <c r="L22" s="24"/>
     </row>
-    <row r="23" spans="1:16" s="20" customFormat="1" ht="11.5">
+    <row r="23" spans="1:16" s="20" customFormat="1" ht="12">
       <c r="A23" s="20" t="s">
         <v>22</v>
       </c>
@@ -12312,7 +12312,7 @@
       <c r="J23" s="21"/>
       <c r="K23" s="21"/>
     </row>
-    <row r="24" spans="1:16" s="20" customFormat="1" ht="11.5">
+    <row r="24" spans="1:16" s="20" customFormat="1" ht="12">
       <c r="A24" s="20" t="s">
         <v>23</v>
       </c>
@@ -12321,7 +12321,7 @@
       <c r="J24" s="21"/>
       <c r="K24" s="21"/>
     </row>
-    <row r="25" spans="1:16" s="20" customFormat="1" ht="11.5">
+    <row r="25" spans="1:16" s="20" customFormat="1" ht="12">
       <c r="A25" s="20" t="s">
         <v>62</v>
       </c>
@@ -12330,12 +12330,12 @@
       <c r="J25" s="21"/>
       <c r="K25" s="21"/>
     </row>
-    <row r="26" spans="1:16" s="20" customFormat="1" ht="11.5">
+    <row r="26" spans="1:16" s="20" customFormat="1" ht="12">
       <c r="A26" s="20" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:16" s="20" customFormat="1" ht="11.5">
+    <row r="27" spans="1:16" s="20" customFormat="1" ht="12">
       <c r="A27" s="20" t="s">
         <v>27</v>
       </c>
@@ -12360,7 +12360,7 @@
       <c r="K28" s="159"/>
       <c r="L28" s="159"/>
     </row>
-    <row r="29" spans="1:16" s="20" customFormat="1" ht="11.5">
+    <row r="29" spans="1:16" s="20" customFormat="1" ht="12">
       <c r="A29" s="159"/>
       <c r="B29" s="159"/>
       <c r="C29" s="159"/>
@@ -12696,20 +12696,20 @@
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="9.42578125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="13.453125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="17.453125" style="11" customWidth="1"/>
-    <col min="3" max="3" width="17.453125" style="10" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="10" customWidth="1"/>
     <col min="4" max="4" width="4" style="10" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" style="11" customWidth="1"/>
-    <col min="6" max="6" width="17.453125" style="10" customWidth="1"/>
-    <col min="7" max="7" width="2.453125" style="10" customWidth="1"/>
-    <col min="8" max="8" width="17.453125" style="11" customWidth="1"/>
-    <col min="9" max="9" width="17.453125" style="10" customWidth="1"/>
-    <col min="10" max="10" width="2.453125" style="10" customWidth="1"/>
-    <col min="11" max="12" width="17.54296875" style="10" customWidth="1"/>
-    <col min="13" max="16384" width="9.453125" style="10"/>
+    <col min="5" max="5" width="17.42578125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" style="10" customWidth="1"/>
+    <col min="7" max="7" width="2.42578125" style="10" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" style="11" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" style="10" customWidth="1"/>
+    <col min="10" max="10" width="2.42578125" style="10" customWidth="1"/>
+    <col min="11" max="12" width="17.5703125" style="10" customWidth="1"/>
+    <col min="13" max="16384" width="9.42578125" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="16.5" customHeight="1">
@@ -13320,35 +13320,35 @@
       <c r="I22" s="24"/>
       <c r="J22" s="24"/>
     </row>
-    <row r="23" spans="1:16" s="20" customFormat="1" ht="11.5">
+    <row r="23" spans="1:16" s="20" customFormat="1" ht="12">
       <c r="A23" s="20" t="s">
         <v>22</v>
       </c>
       <c r="E23" s="21"/>
       <c r="H23" s="21"/>
     </row>
-    <row r="24" spans="1:16" s="20" customFormat="1" ht="11.5">
+    <row r="24" spans="1:16" s="20" customFormat="1" ht="12">
       <c r="A24" s="20" t="s">
         <v>23</v>
       </c>
       <c r="E24" s="21"/>
       <c r="H24" s="21"/>
     </row>
-    <row r="25" spans="1:16" s="20" customFormat="1" ht="11.5">
+    <row r="25" spans="1:16" s="20" customFormat="1" ht="12">
       <c r="A25" s="20" t="s">
         <v>37</v>
       </c>
       <c r="E25" s="21"/>
       <c r="H25" s="21"/>
     </row>
-    <row r="26" spans="1:16" s="20" customFormat="1" ht="11.5">
+    <row r="26" spans="1:16" s="20" customFormat="1" ht="12">
       <c r="A26" s="20" t="s">
         <v>24</v>
       </c>
       <c r="E26" s="21"/>
       <c r="H26" s="21"/>
     </row>
-    <row r="27" spans="1:16" s="20" customFormat="1" ht="11.5">
+    <row r="27" spans="1:16" s="20" customFormat="1" ht="12">
       <c r="A27" s="20" t="s">
         <v>27</v>
       </c>
@@ -13369,7 +13369,7 @@
       <c r="I28" s="159"/>
       <c r="J28" s="35"/>
     </row>
-    <row r="29" spans="1:16" s="20" customFormat="1" ht="11.5">
+    <row r="29" spans="1:16" s="20" customFormat="1" ht="12">
       <c r="A29" s="159"/>
       <c r="B29" s="159"/>
       <c r="C29" s="159"/>
@@ -13384,7 +13384,7 @@
     <row r="30" spans="1:16">
       <c r="A30" s="46"/>
     </row>
-    <row r="31" spans="1:16" ht="13">
+    <row r="31" spans="1:16">
       <c r="A31" s="40"/>
       <c r="B31" s="41"/>
       <c r="C31" s="40"/>
@@ -13420,7 +13420,7 @@
       <c r="O32"/>
       <c r="P32" s="40"/>
     </row>
-    <row r="33" spans="1:16" ht="13">
+    <row r="33" spans="1:16">
       <c r="A33" s="39"/>
       <c r="B33" s="49"/>
       <c r="C33" s="49"/>
@@ -13438,7 +13438,7 @@
       <c r="O33"/>
       <c r="P33" s="40"/>
     </row>
-    <row r="34" spans="1:16" ht="13">
+    <row r="34" spans="1:16">
       <c r="A34" s="39"/>
       <c r="B34" s="49"/>
       <c r="C34" s="49"/>
@@ -13456,7 +13456,7 @@
       <c r="O34"/>
       <c r="P34" s="40"/>
     </row>
-    <row r="35" spans="1:16" ht="13">
+    <row r="35" spans="1:16">
       <c r="A35" s="39"/>
       <c r="B35" s="49"/>
       <c r="C35" s="49"/>
@@ -13474,7 +13474,7 @@
       <c r="O35"/>
       <c r="P35" s="40"/>
     </row>
-    <row r="36" spans="1:16" ht="13">
+    <row r="36" spans="1:16">
       <c r="A36" s="39"/>
       <c r="B36" s="49"/>
       <c r="C36" s="49"/>
@@ -13492,7 +13492,7 @@
       <c r="O36"/>
       <c r="P36" s="40"/>
     </row>
-    <row r="37" spans="1:16" ht="13">
+    <row r="37" spans="1:16">
       <c r="A37" s="39"/>
       <c r="B37" s="49"/>
       <c r="C37" s="49"/>
@@ -13510,7 +13510,7 @@
       <c r="O37"/>
       <c r="P37" s="40"/>
     </row>
-    <row r="38" spans="1:16" ht="13">
+    <row r="38" spans="1:16">
       <c r="A38" s="39"/>
       <c r="B38" s="49"/>
       <c r="C38" s="49"/>
@@ -13528,7 +13528,7 @@
       <c r="O38"/>
       <c r="P38" s="40"/>
     </row>
-    <row r="39" spans="1:16" ht="13">
+    <row r="39" spans="1:16">
       <c r="A39" s="39"/>
       <c r="B39" s="49"/>
       <c r="C39" s="49"/>
@@ -13546,7 +13546,7 @@
       <c r="O39"/>
       <c r="P39" s="40"/>
     </row>
-    <row r="40" spans="1:16" ht="13">
+    <row r="40" spans="1:16">
       <c r="A40" s="39"/>
       <c r="B40" s="49"/>
       <c r="C40" s="49"/>
@@ -13564,7 +13564,7 @@
       <c r="O40"/>
       <c r="P40" s="40"/>
     </row>
-    <row r="41" spans="1:16" ht="13">
+    <row r="41" spans="1:16">
       <c r="A41" s="39"/>
       <c r="B41" s="49"/>
       <c r="C41" s="49"/>
@@ -13582,7 +13582,7 @@
       <c r="O41"/>
       <c r="P41" s="40"/>
     </row>
-    <row r="42" spans="1:16" ht="13">
+    <row r="42" spans="1:16">
       <c r="A42" s="39"/>
       <c r="B42" s="49"/>
       <c r="C42" s="49"/>
@@ -13600,7 +13600,7 @@
       <c r="O42"/>
       <c r="P42" s="40"/>
     </row>
-    <row r="43" spans="1:16" ht="13">
+    <row r="43" spans="1:16">
       <c r="A43" s="39"/>
       <c r="B43" s="49"/>
       <c r="C43" s="49"/>
@@ -13618,7 +13618,7 @@
       <c r="O43"/>
       <c r="P43" s="40"/>
     </row>
-    <row r="44" spans="1:16" ht="13">
+    <row r="44" spans="1:16">
       <c r="A44" s="39"/>
       <c r="B44" s="49"/>
       <c r="C44" s="49"/>
@@ -13636,7 +13636,7 @@
       <c r="O44"/>
       <c r="P44" s="40"/>
     </row>
-    <row r="45" spans="1:16" ht="13">
+    <row r="45" spans="1:16">
       <c r="A45" s="39"/>
       <c r="B45" s="49"/>
       <c r="C45" s="49"/>
@@ -13827,20 +13827,20 @@
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="9.42578125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="13.453125" style="10" customWidth="1"/>
-    <col min="2" max="3" width="17.54296875" style="11" customWidth="1"/>
-    <col min="4" max="4" width="17.54296875" style="10" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" style="10" customWidth="1"/>
+    <col min="2" max="3" width="17.5703125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="10" customWidth="1"/>
     <col min="5" max="5" width="4" style="10" customWidth="1"/>
-    <col min="6" max="7" width="17.54296875" style="11" customWidth="1"/>
-    <col min="8" max="8" width="17.54296875" style="10" customWidth="1"/>
-    <col min="9" max="9" width="2.453125" style="10" customWidth="1"/>
-    <col min="10" max="11" width="17.54296875" style="11" customWidth="1"/>
-    <col min="12" max="12" width="17.54296875" style="10" customWidth="1"/>
-    <col min="13" max="13" width="2.54296875" style="10" customWidth="1"/>
-    <col min="14" max="16" width="17.54296875" style="10" customWidth="1"/>
-    <col min="17" max="16384" width="9.453125" style="10"/>
+    <col min="6" max="7" width="17.5703125" style="11" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" style="10" customWidth="1"/>
+    <col min="9" max="9" width="2.42578125" style="10" customWidth="1"/>
+    <col min="10" max="11" width="17.5703125" style="11" customWidth="1"/>
+    <col min="12" max="12" width="17.5703125" style="10" customWidth="1"/>
+    <col min="13" max="13" width="2.5703125" style="10" customWidth="1"/>
+    <col min="14" max="16" width="17.5703125" style="10" customWidth="1"/>
+    <col min="17" max="16384" width="9.42578125" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="16.5" customHeight="1">
@@ -14665,7 +14665,7 @@
       <c r="K22" s="21"/>
       <c r="L22" s="24"/>
     </row>
-    <row r="23" spans="1:16" s="20" customFormat="1" ht="11.5">
+    <row r="23" spans="1:16" s="20" customFormat="1" ht="12">
       <c r="A23" s="20" t="s">
         <v>22</v>
       </c>
@@ -14674,7 +14674,7 @@
       <c r="J23" s="21"/>
       <c r="K23" s="21"/>
     </row>
-    <row r="24" spans="1:16" s="20" customFormat="1" ht="11.5">
+    <row r="24" spans="1:16" s="20" customFormat="1" ht="12">
       <c r="A24" s="20" t="s">
         <v>23</v>
       </c>
@@ -14683,7 +14683,7 @@
       <c r="J24" s="21"/>
       <c r="K24" s="21"/>
     </row>
-    <row r="25" spans="1:16" s="20" customFormat="1" ht="11.5">
+    <row r="25" spans="1:16" s="20" customFormat="1" ht="12">
       <c r="A25" s="20" t="s">
         <v>42</v>
       </c>
@@ -14692,7 +14692,7 @@
       <c r="J25" s="21"/>
       <c r="K25" s="21"/>
     </row>
-    <row r="26" spans="1:16" s="20" customFormat="1" ht="11.5">
+    <row r="26" spans="1:16" s="20" customFormat="1" ht="12">
       <c r="A26" s="20" t="s">
         <v>24</v>
       </c>
@@ -14701,7 +14701,7 @@
       <c r="J26" s="21"/>
       <c r="K26" s="21"/>
     </row>
-    <row r="27" spans="1:16" s="20" customFormat="1" ht="11.5">
+    <row r="27" spans="1:16" s="20" customFormat="1" ht="12">
       <c r="A27" s="20" t="s">
         <v>27</v>
       </c>
@@ -14726,7 +14726,7 @@
       <c r="K28" s="159"/>
       <c r="L28" s="159"/>
     </row>
-    <row r="29" spans="1:16" s="20" customFormat="1" ht="11.5">
+    <row r="29" spans="1:16" s="20" customFormat="1" ht="12">
       <c r="A29" s="159"/>
       <c r="B29" s="159"/>
       <c r="C29" s="159"/>
@@ -15056,20 +15056,20 @@
       <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="9.42578125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="13.453125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="17.453125" style="11" customWidth="1"/>
-    <col min="3" max="3" width="17.453125" style="10" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="10" customWidth="1"/>
     <col min="4" max="4" width="4" style="10" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" style="11" customWidth="1"/>
-    <col min="6" max="6" width="17.453125" style="10" customWidth="1"/>
-    <col min="7" max="7" width="2.453125" style="10" customWidth="1"/>
-    <col min="8" max="8" width="17.453125" style="11" customWidth="1"/>
-    <col min="9" max="9" width="17.453125" style="10" customWidth="1"/>
-    <col min="10" max="10" width="2.453125" style="10" customWidth="1"/>
-    <col min="11" max="12" width="17.54296875" style="10" customWidth="1"/>
-    <col min="13" max="16384" width="9.453125" style="10"/>
+    <col min="5" max="5" width="17.42578125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" style="10" customWidth="1"/>
+    <col min="7" max="7" width="2.42578125" style="10" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" style="11" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" style="10" customWidth="1"/>
+    <col min="10" max="10" width="2.42578125" style="10" customWidth="1"/>
+    <col min="11" max="12" width="17.5703125" style="10" customWidth="1"/>
+    <col min="13" max="16384" width="9.42578125" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="16.5" customHeight="1">
@@ -15680,35 +15680,35 @@
       <c r="I22" s="24"/>
       <c r="J22" s="24"/>
     </row>
-    <row r="23" spans="1:12" s="20" customFormat="1" ht="11.5">
+    <row r="23" spans="1:12" s="20" customFormat="1" ht="12">
       <c r="A23" s="20" t="s">
         <v>22</v>
       </c>
       <c r="E23" s="21"/>
       <c r="H23" s="21"/>
     </row>
-    <row r="24" spans="1:12" s="20" customFormat="1" ht="11.5">
+    <row r="24" spans="1:12" s="20" customFormat="1" ht="12">
       <c r="A24" s="20" t="s">
         <v>23</v>
       </c>
       <c r="E24" s="21"/>
       <c r="H24" s="21"/>
     </row>
-    <row r="25" spans="1:12" s="20" customFormat="1" ht="11.5">
+    <row r="25" spans="1:12" s="20" customFormat="1" ht="12">
       <c r="A25" s="20" t="s">
         <v>37</v>
       </c>
       <c r="E25" s="21"/>
       <c r="H25" s="21"/>
     </row>
-    <row r="26" spans="1:12" s="20" customFormat="1" ht="11.5">
+    <row r="26" spans="1:12" s="20" customFormat="1" ht="12">
       <c r="A26" s="20" t="s">
         <v>24</v>
       </c>
       <c r="E26" s="21"/>
       <c r="H26" s="21"/>
     </row>
-    <row r="27" spans="1:12" s="20" customFormat="1" ht="11.5">
+    <row r="27" spans="1:12" s="20" customFormat="1" ht="12">
       <c r="A27" s="20" t="s">
         <v>27</v>
       </c>
@@ -15729,7 +15729,7 @@
       <c r="I28" s="159"/>
       <c r="J28" s="35"/>
     </row>
-    <row r="29" spans="1:12" s="20" customFormat="1" ht="11.5">
+    <row r="29" spans="1:12" s="20" customFormat="1" ht="12">
       <c r="A29" s="159"/>
       <c r="B29" s="159"/>
       <c r="C29" s="159"/>
@@ -15896,10 +15896,10 @@
   <sheetViews>
     <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="9.42578125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="171.453125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.453125" style="1"/>
+    <col min="1" max="1" width="171.42578125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="10" customFormat="1" ht="16.5" customHeight="1">
@@ -15929,7 +15929,7 @@
     <row r="4" spans="1:9">
       <c r="A4" s="4"/>
     </row>
-    <row r="5" spans="1:9" ht="15.5">
+    <row r="5" spans="1:9" ht="15">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -15940,7 +15940,7 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" ht="17">
+    <row r="6" spans="1:9" ht="17.25">
       <c r="A6" s="5"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -15951,7 +15951,7 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9" ht="17">
+    <row r="7" spans="1:9" ht="17.25">
       <c r="A7" s="5"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -15962,7 +15962,7 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9" ht="17">
+    <row r="8" spans="1:9" ht="17.25">
       <c r="A8" s="5"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -15973,7 +15973,7 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9" ht="17">
+    <row r="9" spans="1:9" ht="17.25">
       <c r="A9" s="5"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -15984,7 +15984,7 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:9" ht="17">
+    <row r="10" spans="1:9" ht="17.25">
       <c r="A10" s="5"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -15995,7 +15995,7 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9" ht="17">
+    <row r="11" spans="1:9" ht="17.25">
       <c r="A11" s="5"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -16006,7 +16006,7 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:9" ht="15.5">
+    <row r="12" spans="1:9" ht="15">
       <c r="A12" s="8"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -16017,7 +16017,7 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:9" ht="17">
+    <row r="13" spans="1:9" ht="17.25">
       <c r="A13" s="5"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -16028,7 +16028,7 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:9" ht="17">
+    <row r="14" spans="1:9" ht="17.25">
       <c r="A14" s="5"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -16039,7 +16039,7 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:9" ht="15.5">
+    <row r="15" spans="1:9" ht="15">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -16052,12 +16052,12 @@
     <row r="17" spans="1:1">
       <c r="A17" s="3"/>
     </row>
-    <row r="20" spans="1:1" ht="14">
+    <row r="20" spans="1:1" ht="14.25">
       <c r="A20" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="15.5">
+    <row r="26" spans="1:1" ht="15">
       <c r="A26" s="2"/>
     </row>
     <row r="33" spans="11:11">
@@ -16094,20 +16094,20 @@
       <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="9.42578125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="13.453125" style="10" customWidth="1"/>
-    <col min="2" max="3" width="17.54296875" style="11" customWidth="1"/>
-    <col min="4" max="4" width="17.54296875" style="10" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" style="10" customWidth="1"/>
+    <col min="2" max="3" width="17.5703125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="10" customWidth="1"/>
     <col min="5" max="5" width="4" style="10" customWidth="1"/>
-    <col min="6" max="7" width="17.54296875" style="11" customWidth="1"/>
-    <col min="8" max="8" width="17.54296875" style="10" customWidth="1"/>
-    <col min="9" max="9" width="2.453125" style="10" customWidth="1"/>
-    <col min="10" max="11" width="17.54296875" style="11" customWidth="1"/>
-    <col min="12" max="12" width="17.54296875" style="10" customWidth="1"/>
-    <col min="13" max="13" width="2.54296875" style="10" customWidth="1"/>
-    <col min="14" max="16" width="17.54296875" style="10" customWidth="1"/>
-    <col min="17" max="16384" width="9.453125" style="10"/>
+    <col min="6" max="7" width="17.5703125" style="11" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" style="10" customWidth="1"/>
+    <col min="9" max="9" width="2.42578125" style="10" customWidth="1"/>
+    <col min="10" max="11" width="17.5703125" style="11" customWidth="1"/>
+    <col min="12" max="12" width="17.5703125" style="10" customWidth="1"/>
+    <col min="13" max="13" width="2.5703125" style="10" customWidth="1"/>
+    <col min="14" max="16" width="17.5703125" style="10" customWidth="1"/>
+    <col min="17" max="16384" width="9.42578125" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="16.5" customHeight="1">
@@ -16932,7 +16932,7 @@
       <c r="K22" s="21"/>
       <c r="L22" s="24"/>
     </row>
-    <row r="23" spans="1:16" s="20" customFormat="1" ht="11.5">
+    <row r="23" spans="1:16" s="20" customFormat="1" ht="12">
       <c r="A23" s="20" t="s">
         <v>22</v>
       </c>
@@ -16941,7 +16941,7 @@
       <c r="J23" s="21"/>
       <c r="K23" s="21"/>
     </row>
-    <row r="24" spans="1:16" s="20" customFormat="1" ht="11.5">
+    <row r="24" spans="1:16" s="20" customFormat="1" ht="12">
       <c r="A24" s="20" t="s">
         <v>23</v>
       </c>
@@ -16950,7 +16950,7 @@
       <c r="J24" s="21"/>
       <c r="K24" s="21"/>
     </row>
-    <row r="25" spans="1:16" s="20" customFormat="1" ht="11.5">
+    <row r="25" spans="1:16" s="20" customFormat="1" ht="12">
       <c r="A25" s="20" t="s">
         <v>38</v>
       </c>
@@ -16959,7 +16959,7 @@
       <c r="J25" s="21"/>
       <c r="K25" s="21"/>
     </row>
-    <row r="26" spans="1:16" s="20" customFormat="1" ht="11.5">
+    <row r="26" spans="1:16" s="20" customFormat="1" ht="12">
       <c r="A26" s="20" t="s">
         <v>24</v>
       </c>
@@ -16968,7 +16968,7 @@
       <c r="J26" s="21"/>
       <c r="K26" s="21"/>
     </row>
-    <row r="27" spans="1:16" s="20" customFormat="1" ht="11.5">
+    <row r="27" spans="1:16" s="20" customFormat="1" ht="12">
       <c r="A27" s="20" t="s">
         <v>27</v>
       </c>
@@ -16993,7 +16993,7 @@
       <c r="K28" s="159"/>
       <c r="L28" s="159"/>
     </row>
-    <row r="29" spans="1:16" s="20" customFormat="1" ht="11.5">
+    <row r="29" spans="1:16" s="20" customFormat="1" ht="12">
       <c r="A29" s="159"/>
       <c r="B29" s="159"/>
       <c r="C29" s="159"/>
@@ -17145,20 +17145,20 @@
       <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="9.42578125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="13.453125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="17.453125" style="11" customWidth="1"/>
-    <col min="3" max="3" width="17.453125" style="10" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="10" customWidth="1"/>
     <col min="4" max="4" width="4" style="10" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" style="11" customWidth="1"/>
-    <col min="6" max="6" width="17.453125" style="10" customWidth="1"/>
-    <col min="7" max="7" width="2.453125" style="10" customWidth="1"/>
-    <col min="8" max="8" width="17.453125" style="11" customWidth="1"/>
-    <col min="9" max="9" width="17.453125" style="10" customWidth="1"/>
-    <col min="10" max="10" width="2.453125" style="10" customWidth="1"/>
-    <col min="11" max="12" width="17.54296875" style="10" customWidth="1"/>
-    <col min="13" max="16384" width="9.453125" style="10"/>
+    <col min="5" max="5" width="17.42578125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" style="10" customWidth="1"/>
+    <col min="7" max="7" width="2.42578125" style="10" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" style="11" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" style="10" customWidth="1"/>
+    <col min="10" max="10" width="2.42578125" style="10" customWidth="1"/>
+    <col min="11" max="12" width="17.5703125" style="10" customWidth="1"/>
+    <col min="13" max="16384" width="9.42578125" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="16.5" customHeight="1">
@@ -17833,7 +17833,7 @@
       <c r="I22" s="24"/>
       <c r="J22" s="24"/>
     </row>
-    <row r="23" spans="1:25" s="20" customFormat="1" ht="11.5">
+    <row r="23" spans="1:25" s="20" customFormat="1" ht="12">
       <c r="A23" s="20" t="s">
         <v>22</v>
       </c>
@@ -17842,7 +17842,7 @@
       <c r="T23" s="45"/>
       <c r="U23" s="45"/>
     </row>
-    <row r="24" spans="1:25" s="20" customFormat="1" ht="11.5">
+    <row r="24" spans="1:25" s="20" customFormat="1" ht="12">
       <c r="A24" s="20" t="s">
         <v>23</v>
       </c>
@@ -17850,21 +17850,21 @@
       <c r="H24" s="21"/>
       <c r="L24" s="21"/>
     </row>
-    <row r="25" spans="1:25" s="20" customFormat="1" ht="11.5">
+    <row r="25" spans="1:25" s="20" customFormat="1" ht="12">
       <c r="A25" s="20" t="s">
         <v>37</v>
       </c>
       <c r="E25" s="21"/>
       <c r="H25" s="21"/>
     </row>
-    <row r="26" spans="1:25" s="20" customFormat="1" ht="11.5">
+    <row r="26" spans="1:25" s="20" customFormat="1" ht="12">
       <c r="A26" s="20" t="s">
         <v>24</v>
       </c>
       <c r="E26" s="21"/>
       <c r="H26" s="21"/>
     </row>
-    <row r="27" spans="1:25" s="20" customFormat="1" ht="11.5">
+    <row r="27" spans="1:25" s="20" customFormat="1" ht="12">
       <c r="A27" s="20" t="s">
         <v>27</v>
       </c>
@@ -18139,20 +18139,20 @@
       <selection pane="topRight" activeCell="N21" sqref="N21:P21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="9.42578125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="13.453125" style="10" customWidth="1"/>
-    <col min="2" max="3" width="17.54296875" style="11" customWidth="1"/>
-    <col min="4" max="4" width="17.54296875" style="10" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" style="10" customWidth="1"/>
+    <col min="2" max="3" width="17.5703125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="10" customWidth="1"/>
     <col min="5" max="5" width="4" style="10" customWidth="1"/>
-    <col min="6" max="7" width="17.54296875" style="11" customWidth="1"/>
-    <col min="8" max="8" width="17.54296875" style="10" customWidth="1"/>
-    <col min="9" max="9" width="2.453125" style="10" customWidth="1"/>
-    <col min="10" max="11" width="17.54296875" style="11" customWidth="1"/>
-    <col min="12" max="12" width="17.54296875" style="10" customWidth="1"/>
-    <col min="13" max="13" width="2.54296875" style="10" customWidth="1"/>
-    <col min="14" max="16" width="17.54296875" style="10" customWidth="1"/>
-    <col min="17" max="16384" width="9.453125" style="10"/>
+    <col min="6" max="7" width="17.5703125" style="11" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" style="10" customWidth="1"/>
+    <col min="9" max="9" width="2.42578125" style="10" customWidth="1"/>
+    <col min="10" max="11" width="17.5703125" style="11" customWidth="1"/>
+    <col min="12" max="12" width="17.5703125" style="10" customWidth="1"/>
+    <col min="13" max="13" width="2.5703125" style="10" customWidth="1"/>
+    <col min="14" max="16" width="17.5703125" style="10" customWidth="1"/>
+    <col min="17" max="16384" width="9.42578125" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="16.5" customHeight="1">
@@ -18977,7 +18977,7 @@
       <c r="K22" s="21"/>
       <c r="L22" s="24"/>
     </row>
-    <row r="23" spans="1:16" s="20" customFormat="1" ht="11.5">
+    <row r="23" spans="1:16" s="20" customFormat="1" ht="12">
       <c r="A23" s="20" t="s">
         <v>22</v>
       </c>
@@ -18986,7 +18986,7 @@
       <c r="J23" s="21"/>
       <c r="K23" s="21"/>
     </row>
-    <row r="24" spans="1:16" s="20" customFormat="1" ht="11.5">
+    <row r="24" spans="1:16" s="20" customFormat="1" ht="12">
       <c r="A24" s="20" t="s">
         <v>23</v>
       </c>
@@ -18995,7 +18995,7 @@
       <c r="J24" s="21"/>
       <c r="K24" s="21"/>
     </row>
-    <row r="25" spans="1:16" s="20" customFormat="1" ht="11.5">
+    <row r="25" spans="1:16" s="20" customFormat="1" ht="12">
       <c r="A25" s="20" t="s">
         <v>38</v>
       </c>
@@ -19004,7 +19004,7 @@
       <c r="J25" s="21"/>
       <c r="K25" s="21"/>
     </row>
-    <row r="26" spans="1:16" s="20" customFormat="1" ht="11.5">
+    <row r="26" spans="1:16" s="20" customFormat="1" ht="12">
       <c r="A26" s="20" t="s">
         <v>24</v>
       </c>
@@ -19013,7 +19013,7 @@
       <c r="J26" s="21"/>
       <c r="K26" s="21"/>
     </row>
-    <row r="27" spans="1:16" s="20" customFormat="1" ht="11.5">
+    <row r="27" spans="1:16" s="20" customFormat="1" ht="12">
       <c r="A27" s="20" t="s">
         <v>27</v>
       </c>
@@ -19038,7 +19038,7 @@
       <c r="K28" s="159"/>
       <c r="L28" s="159"/>
     </row>
-    <row r="29" spans="1:16" s="20" customFormat="1" ht="11.5">
+    <row r="29" spans="1:16" s="20" customFormat="1" ht="12">
       <c r="A29" s="159"/>
       <c r="B29" s="159"/>
       <c r="C29" s="159"/>
@@ -19187,36 +19187,36 @@
   </sheetPr>
   <dimension ref="A1:Y64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView showGridLines="0" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:M32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="9.42578125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="21.54296875" style="10" customWidth="1"/>
-    <col min="2" max="2" width="10.54296875" style="11" customWidth="1"/>
-    <col min="3" max="3" width="10.54296875" style="10" customWidth="1"/>
-    <col min="4" max="4" width="1.54296875" style="10" customWidth="1"/>
-    <col min="5" max="5" width="10.54296875" style="11" customWidth="1"/>
-    <col min="6" max="6" width="10.54296875" style="10" customWidth="1"/>
-    <col min="7" max="7" width="1.54296875" style="10" customWidth="1"/>
-    <col min="8" max="8" width="10.54296875" style="11" customWidth="1"/>
-    <col min="9" max="9" width="10.54296875" style="10" customWidth="1"/>
-    <col min="10" max="10" width="1.54296875" style="10" customWidth="1"/>
-    <col min="11" max="12" width="10.54296875" style="10" customWidth="1"/>
-    <col min="13" max="13" width="2.54296875" style="10" customWidth="1"/>
-    <col min="14" max="14" width="9.453125" style="10"/>
-    <col min="15" max="15" width="10.54296875" style="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.453125" style="10" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.453125" style="10" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.453125" style="10" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="1.5703125" style="10" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="10" customWidth="1"/>
+    <col min="7" max="7" width="1.5703125" style="10" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" style="11" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" style="10" customWidth="1"/>
+    <col min="10" max="10" width="1.5703125" style="10" customWidth="1"/>
+    <col min="11" max="12" width="10.5703125" style="10" customWidth="1"/>
+    <col min="13" max="13" width="2.5703125" style="10" customWidth="1"/>
+    <col min="14" max="14" width="9.42578125" style="10"/>
+    <col min="15" max="15" width="10.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.42578125" style="10" customWidth="1"/>
     <col min="19" max="20" width="7" style="10" customWidth="1"/>
-    <col min="21" max="21" width="5.54296875" style="10" customWidth="1"/>
-    <col min="22" max="22" width="7.453125" style="10" customWidth="1"/>
+    <col min="21" max="21" width="5.5703125" style="10" customWidth="1"/>
+    <col min="22" max="22" width="7.42578125" style="10" customWidth="1"/>
     <col min="23" max="23" width="15" style="10" customWidth="1"/>
-    <col min="24" max="24" width="17.54296875" style="10" customWidth="1"/>
-    <col min="25" max="25" width="22.453125" style="10" customWidth="1"/>
-    <col min="26" max="16384" width="9.453125" style="10"/>
+    <col min="24" max="24" width="17.5703125" style="10" customWidth="1"/>
+    <col min="25" max="25" width="22.42578125" style="10" customWidth="1"/>
+    <col min="26" max="16384" width="9.42578125" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="102" customFormat="1" ht="18" customHeight="1">
@@ -19277,7 +19277,7 @@
       </c>
       <c r="L4" s="160"/>
     </row>
-    <row r="5" spans="1:25" s="114" customFormat="1" ht="64" customHeight="1">
+    <row r="5" spans="1:25" s="114" customFormat="1" ht="63.95" customHeight="1">
       <c r="A5" s="110" t="s">
         <v>122</v>
       </c>
@@ -19309,7 +19309,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:25" s="114" customFormat="1" ht="16" customHeight="1">
+    <row r="6" spans="1:25" s="114" customFormat="1" ht="15.95" customHeight="1">
       <c r="A6" s="114" t="s">
         <v>53</v>
       </c>
@@ -19354,7 +19354,7 @@
       <c r="X6" s="117"/>
       <c r="Y6" s="117"/>
     </row>
-    <row r="7" spans="1:25" s="114" customFormat="1" ht="16" customHeight="1">
+    <row r="7" spans="1:25" s="114" customFormat="1" ht="15.95" customHeight="1">
       <c r="A7" s="114" t="s">
         <v>57</v>
       </c>
@@ -19399,7 +19399,7 @@
       <c r="X7" s="117"/>
       <c r="Y7" s="117"/>
     </row>
-    <row r="8" spans="1:25" s="114" customFormat="1" ht="16" customHeight="1">
+    <row r="8" spans="1:25" s="114" customFormat="1" ht="15.95" customHeight="1">
       <c r="A8" s="114" t="s">
         <v>11</v>
       </c>
@@ -19444,7 +19444,7 @@
       <c r="X8" s="117"/>
       <c r="Y8" s="117"/>
     </row>
-    <row r="9" spans="1:25" s="114" customFormat="1" ht="16" customHeight="1">
+    <row r="9" spans="1:25" s="114" customFormat="1" ht="15.95" customHeight="1">
       <c r="A9" s="114" t="s">
         <v>50</v>
       </c>
@@ -19489,7 +19489,7 @@
       <c r="X9" s="117"/>
       <c r="Y9" s="117"/>
     </row>
-    <row r="10" spans="1:25" s="114" customFormat="1" ht="16" customHeight="1">
+    <row r="10" spans="1:25" s="114" customFormat="1" ht="15.95" customHeight="1">
       <c r="A10" s="114" t="s">
         <v>52</v>
       </c>
@@ -19534,7 +19534,7 @@
       <c r="X10" s="117"/>
       <c r="Y10" s="117"/>
     </row>
-    <row r="11" spans="1:25" s="114" customFormat="1" ht="16" customHeight="1">
+    <row r="11" spans="1:25" s="114" customFormat="1" ht="15.95" customHeight="1">
       <c r="A11" s="114" t="s">
         <v>44</v>
       </c>
@@ -19579,7 +19579,7 @@
       <c r="X11" s="117"/>
       <c r="Y11" s="117"/>
     </row>
-    <row r="12" spans="1:25" s="114" customFormat="1" ht="16" customHeight="1">
+    <row r="12" spans="1:25" s="114" customFormat="1" ht="15.95" customHeight="1">
       <c r="A12" s="114" t="s">
         <v>51</v>
       </c>
@@ -19624,7 +19624,7 @@
       <c r="X12" s="117"/>
       <c r="Y12" s="117"/>
     </row>
-    <row r="13" spans="1:25" s="114" customFormat="1" ht="16" customHeight="1">
+    <row r="13" spans="1:25" s="114" customFormat="1" ht="15.95" customHeight="1">
       <c r="A13" s="114" t="s">
         <v>45</v>
       </c>
@@ -19669,7 +19669,7 @@
       <c r="X13" s="117"/>
       <c r="Y13" s="117"/>
     </row>
-    <row r="14" spans="1:25" s="114" customFormat="1" ht="16" customHeight="1">
+    <row r="14" spans="1:25" s="114" customFormat="1" ht="15.95" customHeight="1">
       <c r="A14" s="114" t="s">
         <v>46</v>
       </c>
@@ -19714,7 +19714,7 @@
       <c r="X14" s="117"/>
       <c r="Y14" s="117"/>
     </row>
-    <row r="15" spans="1:25" s="114" customFormat="1" ht="16" customHeight="1">
+    <row r="15" spans="1:25" s="114" customFormat="1" ht="15.95" customHeight="1">
       <c r="A15" s="114" t="s">
         <v>48</v>
       </c>
@@ -19759,7 +19759,7 @@
       <c r="X15" s="117"/>
       <c r="Y15" s="117"/>
     </row>
-    <row r="16" spans="1:25" s="114" customFormat="1" ht="16" customHeight="1">
+    <row r="16" spans="1:25" s="114" customFormat="1" ht="15.95" customHeight="1">
       <c r="A16" s="114" t="s">
         <v>47</v>
       </c>
@@ -19804,7 +19804,7 @@
       <c r="X16" s="117"/>
       <c r="Y16" s="117"/>
     </row>
-    <row r="17" spans="1:25" s="114" customFormat="1" ht="16" customHeight="1">
+    <row r="17" spans="1:25" s="114" customFormat="1" ht="15.95" customHeight="1">
       <c r="A17" s="114" t="s">
         <v>54</v>
       </c>
@@ -19849,7 +19849,7 @@
       <c r="X17" s="117"/>
       <c r="Y17" s="117"/>
     </row>
-    <row r="18" spans="1:25" s="114" customFormat="1" ht="16" customHeight="1">
+    <row r="18" spans="1:25" s="114" customFormat="1" ht="15.95" customHeight="1">
       <c r="A18" s="114" t="s">
         <v>55</v>
       </c>
@@ -19894,7 +19894,7 @@
       <c r="X18" s="117"/>
       <c r="Y18" s="117"/>
     </row>
-    <row r="19" spans="1:25" s="114" customFormat="1" ht="16" customHeight="1">
+    <row r="19" spans="1:25" s="114" customFormat="1" ht="15.95" customHeight="1">
       <c r="A19" s="114" t="s">
         <v>56</v>
       </c>
@@ -19939,7 +19939,7 @@
       <c r="X19" s="117"/>
       <c r="Y19" s="117"/>
     </row>
-    <row r="20" spans="1:25" s="114" customFormat="1" ht="16" customHeight="1">
+    <row r="20" spans="1:25" s="114" customFormat="1" ht="15.95" customHeight="1">
       <c r="A20" s="114" t="s">
         <v>49</v>
       </c>
@@ -20036,7 +20036,7 @@
       <c r="I22" s="126"/>
       <c r="J22" s="126"/>
     </row>
-    <row r="23" spans="1:25" s="114" customFormat="1" ht="11.5">
+    <row r="23" spans="1:25" s="114" customFormat="1" ht="12">
       <c r="A23" s="157" t="s">
         <v>126</v>
       </c>
@@ -20053,7 +20053,7 @@
       <c r="L23" s="158"/>
       <c r="M23" s="158"/>
     </row>
-    <row r="24" spans="1:25" s="114" customFormat="1" ht="11.5">
+    <row r="24" spans="1:25" s="114" customFormat="1" ht="12">
       <c r="A24" s="157"/>
       <c r="B24" s="158"/>
       <c r="C24" s="158"/>
@@ -20068,7 +20068,7 @@
       <c r="L24" s="158"/>
       <c r="M24" s="158"/>
     </row>
-    <row r="25" spans="1:25" s="114" customFormat="1" ht="11.5">
+    <row r="25" spans="1:25" s="114" customFormat="1" ht="12">
       <c r="A25" s="158"/>
       <c r="B25" s="158"/>
       <c r="C25" s="158"/>
@@ -20098,7 +20098,7 @@
       <c r="L26" s="137"/>
       <c r="M26" s="137"/>
     </row>
-    <row r="27" spans="1:25" s="114" customFormat="1" ht="11.5">
+    <row r="27" spans="1:25" s="114" customFormat="1" ht="12">
       <c r="A27" s="138" t="s">
         <v>110</v>
       </c>
@@ -20115,7 +20115,7 @@
       <c r="L27" s="138"/>
       <c r="M27" s="138"/>
     </row>
-    <row r="28" spans="1:25" s="114" customFormat="1" ht="11.5">
+    <row r="28" spans="1:25" s="114" customFormat="1" ht="12">
       <c r="A28" s="138" t="s">
         <v>111</v>
       </c>
@@ -20143,7 +20143,7 @@
       <c r="X28" s="116"/>
       <c r="Y28" s="116"/>
     </row>
-    <row r="29" spans="1:25" s="114" customFormat="1" ht="11.5">
+    <row r="29" spans="1:25" s="114" customFormat="1" ht="12">
       <c r="A29" s="157" t="s">
         <v>139</v>
       </c>
@@ -20171,7 +20171,7 @@
       <c r="X29" s="116"/>
       <c r="Y29" s="116"/>
     </row>
-    <row r="30" spans="1:25" s="114" customFormat="1" ht="11.5">
+    <row r="30" spans="1:25" s="114" customFormat="1" ht="12">
       <c r="A30" s="158"/>
       <c r="B30" s="158"/>
       <c r="C30" s="158"/>
@@ -20197,7 +20197,7 @@
       <c r="X30" s="116"/>
       <c r="Y30" s="116"/>
     </row>
-    <row r="31" spans="1:25" s="114" customFormat="1" ht="11.5">
+    <row r="31" spans="1:25" s="114" customFormat="1" ht="12">
       <c r="A31" s="157" t="s">
         <v>127</v>
       </c>
@@ -20225,7 +20225,7 @@
       <c r="X31" s="116"/>
       <c r="Y31" s="116"/>
     </row>
-    <row r="32" spans="1:25" s="114" customFormat="1" ht="11.5">
+    <row r="32" spans="1:25" s="114" customFormat="1" ht="12">
       <c r="A32" s="158"/>
       <c r="B32" s="158"/>
       <c r="C32" s="158"/>
@@ -20251,7 +20251,7 @@
       <c r="X32" s="116"/>
       <c r="Y32" s="116"/>
     </row>
-    <row r="33" spans="1:25" s="114" customFormat="1" ht="11.5">
+    <row r="33" spans="1:25" s="114" customFormat="1" ht="12">
       <c r="A33" s="138" t="s">
         <v>109</v>
       </c>
@@ -20279,7 +20279,7 @@
       <c r="X33" s="116"/>
       <c r="Y33" s="116"/>
     </row>
-    <row r="34" spans="1:25" s="114" customFormat="1" ht="11.5">
+    <row r="34" spans="1:25" s="114" customFormat="1" ht="12">
       <c r="A34" s="159" t="s">
         <v>29</v>
       </c>
@@ -20307,7 +20307,7 @@
       <c r="X34" s="116"/>
       <c r="Y34" s="116"/>
     </row>
-    <row r="35" spans="1:25" s="114" customFormat="1" ht="11.5">
+    <row r="35" spans="1:25" s="114" customFormat="1" ht="12">
       <c r="A35" s="158"/>
       <c r="B35" s="158"/>
       <c r="C35" s="158"/>
@@ -20526,7 +20526,7 @@
       <c r="X42" s="116"/>
       <c r="Y42" s="116"/>
     </row>
-    <row r="43" spans="1:25" s="102" customFormat="1" ht="13">
+    <row r="43" spans="1:25" s="102" customFormat="1">
       <c r="A43" s="132"/>
       <c r="B43" s="130"/>
       <c r="C43" s="130"/>
@@ -20553,7 +20553,7 @@
       <c r="X43" s="116"/>
       <c r="Y43" s="116"/>
     </row>
-    <row r="44" spans="1:25" s="102" customFormat="1" ht="13">
+    <row r="44" spans="1:25" s="102" customFormat="1">
       <c r="A44" s="132"/>
       <c r="B44" s="130"/>
       <c r="C44" s="130"/>
@@ -20580,7 +20580,7 @@
       <c r="X44" s="116"/>
       <c r="Y44" s="116"/>
     </row>
-    <row r="45" spans="1:25" s="102" customFormat="1" ht="13">
+    <row r="45" spans="1:25" s="102" customFormat="1">
       <c r="A45" s="132"/>
       <c r="B45" s="130"/>
       <c r="C45" s="130"/>
@@ -20607,7 +20607,7 @@
       <c r="X45" s="116"/>
       <c r="Y45" s="116"/>
     </row>
-    <row r="46" spans="1:25" s="102" customFormat="1" ht="13">
+    <row r="46" spans="1:25" s="102" customFormat="1">
       <c r="A46" s="132"/>
       <c r="B46" s="130"/>
       <c r="C46" s="130"/>
@@ -20634,7 +20634,7 @@
       <c r="X46" s="116"/>
       <c r="Y46" s="116"/>
     </row>
-    <row r="47" spans="1:25" s="102" customFormat="1" ht="13">
+    <row r="47" spans="1:25" s="102" customFormat="1">
       <c r="A47" s="132"/>
       <c r="B47" s="130"/>
       <c r="C47" s="130"/>
@@ -20661,7 +20661,7 @@
       <c r="X47" s="116"/>
       <c r="Y47" s="116"/>
     </row>
-    <row r="48" spans="1:25" s="102" customFormat="1" ht="13">
+    <row r="48" spans="1:25" s="102" customFormat="1">
       <c r="A48" s="132"/>
       <c r="B48" s="130"/>
       <c r="C48" s="130"/>
@@ -20688,7 +20688,7 @@
       <c r="X48" s="116"/>
       <c r="Y48" s="116"/>
     </row>
-    <row r="49" spans="1:25" s="102" customFormat="1" ht="13">
+    <row r="49" spans="1:25" s="102" customFormat="1">
       <c r="A49" s="132"/>
       <c r="B49" s="130"/>
       <c r="C49" s="130"/>
@@ -20715,7 +20715,7 @@
       <c r="X49" s="116"/>
       <c r="Y49" s="116"/>
     </row>
-    <row r="50" spans="1:25" s="102" customFormat="1" ht="13">
+    <row r="50" spans="1:25" s="102" customFormat="1">
       <c r="A50" s="132"/>
       <c r="B50" s="130"/>
       <c r="C50" s="130"/>
@@ -20742,7 +20742,7 @@
       <c r="X50" s="116"/>
       <c r="Y50" s="116"/>
     </row>
-    <row r="51" spans="1:25" s="102" customFormat="1" ht="13">
+    <row r="51" spans="1:25" s="102" customFormat="1">
       <c r="A51" s="132"/>
       <c r="B51" s="130"/>
       <c r="C51" s="130"/>
@@ -20759,7 +20759,7 @@
       <c r="N51" s="129"/>
       <c r="O51" s="128"/>
     </row>
-    <row r="52" spans="1:25" s="102" customFormat="1" ht="13">
+    <row r="52" spans="1:25" s="102" customFormat="1">
       <c r="A52" s="132"/>
       <c r="B52" s="130"/>
       <c r="C52" s="130"/>
@@ -20776,7 +20776,7 @@
       <c r="N52" s="129"/>
       <c r="O52" s="128"/>
     </row>
-    <row r="53" spans="1:25" s="102" customFormat="1" ht="13">
+    <row r="53" spans="1:25" s="102" customFormat="1">
       <c r="A53" s="132"/>
       <c r="B53" s="130"/>
       <c r="C53" s="130"/>
@@ -20793,7 +20793,7 @@
       <c r="N53" s="129"/>
       <c r="O53" s="128"/>
     </row>
-    <row r="54" spans="1:25" s="102" customFormat="1" ht="13">
+    <row r="54" spans="1:25" s="102" customFormat="1">
       <c r="A54" s="132"/>
       <c r="B54" s="130"/>
       <c r="C54" s="130"/>
@@ -20810,7 +20810,7 @@
       <c r="N54" s="129"/>
       <c r="O54" s="128"/>
     </row>
-    <row r="55" spans="1:25" ht="13">
+    <row r="55" spans="1:25">
       <c r="A55" s="39"/>
       <c r="B55" s="44"/>
       <c r="C55" s="44"/>
@@ -20999,17 +20999,17 @@
       <selection activeCell="A29" sqref="A29:Q30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="9.42578125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="21.54296875" customWidth="1"/>
-    <col min="2" max="4" width="10.54296875" customWidth="1"/>
-    <col min="5" max="5" width="1.54296875" customWidth="1"/>
-    <col min="6" max="8" width="10.54296875" customWidth="1"/>
-    <col min="9" max="9" width="1.54296875" customWidth="1"/>
-    <col min="10" max="12" width="10.54296875" customWidth="1"/>
-    <col min="13" max="13" width="1.54296875" customWidth="1"/>
-    <col min="14" max="16" width="10.54296875" customWidth="1"/>
-    <col min="17" max="17" width="1.54296875" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" customWidth="1"/>
+    <col min="2" max="4" width="10.5703125" customWidth="1"/>
+    <col min="5" max="5" width="1.5703125" customWidth="1"/>
+    <col min="6" max="8" width="10.5703125" customWidth="1"/>
+    <col min="9" max="9" width="1.5703125" customWidth="1"/>
+    <col min="10" max="12" width="10.5703125" customWidth="1"/>
+    <col min="13" max="13" width="1.5703125" customWidth="1"/>
+    <col min="14" max="16" width="10.5703125" customWidth="1"/>
+    <col min="17" max="17" width="1.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1">
@@ -21104,7 +21104,7 @@
       <c r="P4" s="160"/>
       <c r="Q4" s="107"/>
     </row>
-    <row r="5" spans="1:17" ht="64" customHeight="1">
+    <row r="5" spans="1:17" ht="63.95" customHeight="1">
       <c r="A5" s="110" t="s">
         <v>122</v>
       </c>
@@ -21149,7 +21149,7 @@
       </c>
       <c r="Q5" s="114"/>
     </row>
-    <row r="6" spans="1:17" ht="16" customHeight="1">
+    <row r="6" spans="1:17" ht="15.95" customHeight="1">
       <c r="A6" s="114" t="s">
         <v>53</v>
       </c>
@@ -21194,7 +21194,7 @@
       </c>
       <c r="Q6" s="114"/>
     </row>
-    <row r="7" spans="1:17" ht="16" customHeight="1">
+    <row r="7" spans="1:17" ht="15.95" customHeight="1">
       <c r="A7" s="114" t="s">
         <v>57</v>
       </c>
@@ -21239,7 +21239,7 @@
       </c>
       <c r="Q7" s="114"/>
     </row>
-    <row r="8" spans="1:17" ht="16" customHeight="1">
+    <row r="8" spans="1:17" ht="15.95" customHeight="1">
       <c r="A8" s="114" t="s">
         <v>11</v>
       </c>
@@ -21284,7 +21284,7 @@
       </c>
       <c r="Q8" s="114"/>
     </row>
-    <row r="9" spans="1:17" ht="16" customHeight="1">
+    <row r="9" spans="1:17" ht="15.95" customHeight="1">
       <c r="A9" s="114" t="s">
         <v>50</v>
       </c>
@@ -21329,7 +21329,7 @@
       </c>
       <c r="Q9" s="114"/>
     </row>
-    <row r="10" spans="1:17" ht="16" customHeight="1">
+    <row r="10" spans="1:17" ht="15.95" customHeight="1">
       <c r="A10" s="114" t="s">
         <v>52</v>
       </c>
@@ -21374,7 +21374,7 @@
       </c>
       <c r="Q10" s="114"/>
     </row>
-    <row r="11" spans="1:17" ht="16" customHeight="1">
+    <row r="11" spans="1:17" ht="15.95" customHeight="1">
       <c r="A11" s="114" t="s">
         <v>44</v>
       </c>
@@ -21419,7 +21419,7 @@
       </c>
       <c r="Q11" s="114"/>
     </row>
-    <row r="12" spans="1:17" ht="16" customHeight="1">
+    <row r="12" spans="1:17" ht="15.95" customHeight="1">
       <c r="A12" s="114" t="s">
         <v>51</v>
       </c>
@@ -21464,7 +21464,7 @@
       </c>
       <c r="Q12" s="114"/>
     </row>
-    <row r="13" spans="1:17" ht="16" customHeight="1">
+    <row r="13" spans="1:17" ht="15.95" customHeight="1">
       <c r="A13" s="114" t="s">
         <v>45</v>
       </c>
@@ -21509,7 +21509,7 @@
       </c>
       <c r="Q13" s="114"/>
     </row>
-    <row r="14" spans="1:17" ht="16" customHeight="1">
+    <row r="14" spans="1:17" ht="15.95" customHeight="1">
       <c r="A14" s="114" t="s">
         <v>46</v>
       </c>
@@ -21554,7 +21554,7 @@
       </c>
       <c r="Q14" s="114"/>
     </row>
-    <row r="15" spans="1:17" ht="16" customHeight="1">
+    <row r="15" spans="1:17" ht="15.95" customHeight="1">
       <c r="A15" s="114" t="s">
         <v>48</v>
       </c>
@@ -21599,7 +21599,7 @@
       </c>
       <c r="Q15" s="114"/>
     </row>
-    <row r="16" spans="1:17" ht="16" customHeight="1">
+    <row r="16" spans="1:17" ht="15.95" customHeight="1">
       <c r="A16" s="114" t="s">
         <v>47</v>
       </c>
@@ -21644,7 +21644,7 @@
       </c>
       <c r="Q16" s="114"/>
     </row>
-    <row r="17" spans="1:17" ht="16" customHeight="1">
+    <row r="17" spans="1:17" ht="15.95" customHeight="1">
       <c r="A17" s="114" t="s">
         <v>54</v>
       </c>
@@ -21689,7 +21689,7 @@
       </c>
       <c r="Q17" s="114"/>
     </row>
-    <row r="18" spans="1:17" ht="16" customHeight="1">
+    <row r="18" spans="1:17" ht="15.95" customHeight="1">
       <c r="A18" s="114" t="s">
         <v>55</v>
       </c>
@@ -21734,7 +21734,7 @@
       </c>
       <c r="Q18" s="114"/>
     </row>
-    <row r="19" spans="1:17" ht="16" customHeight="1">
+    <row r="19" spans="1:17" ht="15.95" customHeight="1">
       <c r="A19" s="114" t="s">
         <v>56</v>
       </c>
@@ -21779,7 +21779,7 @@
       </c>
       <c r="Q19" s="114"/>
     </row>
-    <row r="20" spans="1:17" ht="16" customHeight="1">
+    <row r="20" spans="1:17" ht="15.95" customHeight="1">
       <c r="A20" s="114" t="s">
         <v>49</v>
       </c>
@@ -22227,32 +22227,32 @@
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="9.42578125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="21.54296875" style="10" customWidth="1"/>
-    <col min="2" max="2" width="10.54296875" style="11" customWidth="1"/>
-    <col min="3" max="3" width="10.54296875" style="10" customWidth="1"/>
-    <col min="4" max="4" width="1.54296875" style="10" customWidth="1"/>
-    <col min="5" max="5" width="10.54296875" style="11" customWidth="1"/>
-    <col min="6" max="6" width="10.54296875" style="10" customWidth="1"/>
-    <col min="7" max="7" width="1.54296875" style="10" customWidth="1"/>
-    <col min="8" max="8" width="10.54296875" style="11" customWidth="1"/>
-    <col min="9" max="9" width="10.54296875" style="10" customWidth="1"/>
-    <col min="10" max="10" width="1.54296875" style="10" customWidth="1"/>
-    <col min="11" max="12" width="10.54296875" style="10" customWidth="1"/>
-    <col min="13" max="13" width="2.54296875" style="10" customWidth="1"/>
-    <col min="14" max="14" width="9.453125" style="10"/>
-    <col min="15" max="15" width="10.54296875" style="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.453125" style="10" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.453125" style="10" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.453125" style="10" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="1.5703125" style="10" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="10" customWidth="1"/>
+    <col min="7" max="7" width="1.5703125" style="10" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" style="11" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" style="10" customWidth="1"/>
+    <col min="10" max="10" width="1.5703125" style="10" customWidth="1"/>
+    <col min="11" max="12" width="10.5703125" style="10" customWidth="1"/>
+    <col min="13" max="13" width="2.5703125" style="10" customWidth="1"/>
+    <col min="14" max="14" width="9.42578125" style="10"/>
+    <col min="15" max="15" width="10.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.42578125" style="10" customWidth="1"/>
     <col min="19" max="20" width="7" style="10" customWidth="1"/>
-    <col min="21" max="21" width="5.54296875" style="10" customWidth="1"/>
-    <col min="22" max="22" width="7.453125" style="10" customWidth="1"/>
+    <col min="21" max="21" width="5.5703125" style="10" customWidth="1"/>
+    <col min="22" max="22" width="7.42578125" style="10" customWidth="1"/>
     <col min="23" max="23" width="15" style="10" customWidth="1"/>
-    <col min="24" max="24" width="17.54296875" style="10" customWidth="1"/>
-    <col min="25" max="25" width="22.453125" style="10" customWidth="1"/>
-    <col min="26" max="16384" width="9.453125" style="10"/>
+    <col min="24" max="24" width="17.5703125" style="10" customWidth="1"/>
+    <col min="25" max="25" width="22.42578125" style="10" customWidth="1"/>
+    <col min="26" max="16384" width="9.42578125" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="102" customFormat="1" ht="18" customHeight="1">
@@ -22313,7 +22313,7 @@
       </c>
       <c r="L4" s="160"/>
     </row>
-    <row r="5" spans="1:25" s="114" customFormat="1" ht="64" customHeight="1">
+    <row r="5" spans="1:25" s="114" customFormat="1" ht="63.95" customHeight="1">
       <c r="A5" s="110" t="s">
         <v>122</v>
       </c>
@@ -22345,7 +22345,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:25" s="114" customFormat="1" ht="16" customHeight="1">
+    <row r="6" spans="1:25" s="114" customFormat="1" ht="15.95" customHeight="1">
       <c r="A6" s="114" t="s">
         <v>53</v>
       </c>
@@ -22390,7 +22390,7 @@
       <c r="X6" s="117"/>
       <c r="Y6" s="117"/>
     </row>
-    <row r="7" spans="1:25" s="114" customFormat="1" ht="16" customHeight="1">
+    <row r="7" spans="1:25" s="114" customFormat="1" ht="15.95" customHeight="1">
       <c r="A7" s="114" t="s">
         <v>57</v>
       </c>
@@ -22435,7 +22435,7 @@
       <c r="X7" s="117"/>
       <c r="Y7" s="117"/>
     </row>
-    <row r="8" spans="1:25" s="114" customFormat="1" ht="16" customHeight="1">
+    <row r="8" spans="1:25" s="114" customFormat="1" ht="15.95" customHeight="1">
       <c r="A8" s="114" t="s">
         <v>11</v>
       </c>
@@ -22480,7 +22480,7 @@
       <c r="X8" s="117"/>
       <c r="Y8" s="117"/>
     </row>
-    <row r="9" spans="1:25" s="114" customFormat="1" ht="16" customHeight="1">
+    <row r="9" spans="1:25" s="114" customFormat="1" ht="15.95" customHeight="1">
       <c r="A9" s="114" t="s">
         <v>50</v>
       </c>
@@ -22525,7 +22525,7 @@
       <c r="X9" s="117"/>
       <c r="Y9" s="117"/>
     </row>
-    <row r="10" spans="1:25" s="114" customFormat="1" ht="16" customHeight="1">
+    <row r="10" spans="1:25" s="114" customFormat="1" ht="15.95" customHeight="1">
       <c r="A10" s="114" t="s">
         <v>52</v>
       </c>
@@ -22570,7 +22570,7 @@
       <c r="X10" s="117"/>
       <c r="Y10" s="117"/>
     </row>
-    <row r="11" spans="1:25" s="114" customFormat="1" ht="16" customHeight="1">
+    <row r="11" spans="1:25" s="114" customFormat="1" ht="15.95" customHeight="1">
       <c r="A11" s="114" t="s">
         <v>44</v>
       </c>
@@ -22615,7 +22615,7 @@
       <c r="X11" s="117"/>
       <c r="Y11" s="117"/>
     </row>
-    <row r="12" spans="1:25" s="114" customFormat="1" ht="16" customHeight="1">
+    <row r="12" spans="1:25" s="114" customFormat="1" ht="15.95" customHeight="1">
       <c r="A12" s="114" t="s">
         <v>51</v>
       </c>
@@ -22660,7 +22660,7 @@
       <c r="X12" s="117"/>
       <c r="Y12" s="117"/>
     </row>
-    <row r="13" spans="1:25" s="114" customFormat="1" ht="16" customHeight="1">
+    <row r="13" spans="1:25" s="114" customFormat="1" ht="15.95" customHeight="1">
       <c r="A13" s="114" t="s">
         <v>45</v>
       </c>
@@ -22705,7 +22705,7 @@
       <c r="X13" s="117"/>
       <c r="Y13" s="117"/>
     </row>
-    <row r="14" spans="1:25" s="114" customFormat="1" ht="16" customHeight="1">
+    <row r="14" spans="1:25" s="114" customFormat="1" ht="15.95" customHeight="1">
       <c r="A14" s="114" t="s">
         <v>46</v>
       </c>
@@ -22750,7 +22750,7 @@
       <c r="X14" s="117"/>
       <c r="Y14" s="117"/>
     </row>
-    <row r="15" spans="1:25" s="114" customFormat="1" ht="16" customHeight="1">
+    <row r="15" spans="1:25" s="114" customFormat="1" ht="15.95" customHeight="1">
       <c r="A15" s="114" t="s">
         <v>48</v>
       </c>
@@ -22795,7 +22795,7 @@
       <c r="X15" s="117"/>
       <c r="Y15" s="117"/>
     </row>
-    <row r="16" spans="1:25" s="114" customFormat="1" ht="16" customHeight="1">
+    <row r="16" spans="1:25" s="114" customFormat="1" ht="15.95" customHeight="1">
       <c r="A16" s="114" t="s">
         <v>47</v>
       </c>
@@ -22840,7 +22840,7 @@
       <c r="X16" s="117"/>
       <c r="Y16" s="117"/>
     </row>
-    <row r="17" spans="1:25" s="114" customFormat="1" ht="16" customHeight="1">
+    <row r="17" spans="1:25" s="114" customFormat="1" ht="15.95" customHeight="1">
       <c r="A17" s="114" t="s">
         <v>54</v>
       </c>
@@ -22885,7 +22885,7 @@
       <c r="X17" s="117"/>
       <c r="Y17" s="117"/>
     </row>
-    <row r="18" spans="1:25" s="114" customFormat="1" ht="16" customHeight="1">
+    <row r="18" spans="1:25" s="114" customFormat="1" ht="15.95" customHeight="1">
       <c r="A18" s="114" t="s">
         <v>55</v>
       </c>
@@ -22930,7 +22930,7 @@
       <c r="X18" s="117"/>
       <c r="Y18" s="117"/>
     </row>
-    <row r="19" spans="1:25" s="114" customFormat="1" ht="16" customHeight="1">
+    <row r="19" spans="1:25" s="114" customFormat="1" ht="15.95" customHeight="1">
       <c r="A19" s="114" t="s">
         <v>56</v>
       </c>
@@ -22975,7 +22975,7 @@
       <c r="X19" s="117"/>
       <c r="Y19" s="117"/>
     </row>
-    <row r="20" spans="1:25" s="114" customFormat="1" ht="16" customHeight="1">
+    <row r="20" spans="1:25" s="114" customFormat="1" ht="15.95" customHeight="1">
       <c r="A20" s="114" t="s">
         <v>49</v>
       </c>
@@ -23072,7 +23072,7 @@
       <c r="I22" s="126"/>
       <c r="J22" s="126"/>
     </row>
-    <row r="23" spans="1:25" s="114" customFormat="1" ht="11.5">
+    <row r="23" spans="1:25" s="114" customFormat="1" ht="12">
       <c r="A23" s="157" t="s">
         <v>126</v>
       </c>
@@ -23089,7 +23089,7 @@
       <c r="L23" s="158"/>
       <c r="M23" s="158"/>
     </row>
-    <row r="24" spans="1:25" s="114" customFormat="1" ht="11.5">
+    <row r="24" spans="1:25" s="114" customFormat="1" ht="12">
       <c r="A24" s="157"/>
       <c r="B24" s="158"/>
       <c r="C24" s="158"/>
@@ -23104,7 +23104,7 @@
       <c r="L24" s="158"/>
       <c r="M24" s="158"/>
     </row>
-    <row r="25" spans="1:25" s="114" customFormat="1" ht="11.5">
+    <row r="25" spans="1:25" s="114" customFormat="1" ht="12">
       <c r="A25" s="158"/>
       <c r="B25" s="158"/>
       <c r="C25" s="158"/>
@@ -23134,7 +23134,7 @@
       <c r="L26" s="151"/>
       <c r="M26" s="151"/>
     </row>
-    <row r="27" spans="1:25" s="114" customFormat="1" ht="11.5">
+    <row r="27" spans="1:25" s="114" customFormat="1" ht="12">
       <c r="A27" s="138" t="s">
         <v>110</v>
       </c>
@@ -23151,7 +23151,7 @@
       <c r="L27" s="138"/>
       <c r="M27" s="138"/>
     </row>
-    <row r="28" spans="1:25" s="114" customFormat="1" ht="11.5">
+    <row r="28" spans="1:25" s="114" customFormat="1" ht="12">
       <c r="A28" s="138" t="s">
         <v>111</v>
       </c>
@@ -23179,7 +23179,7 @@
       <c r="X28" s="116"/>
       <c r="Y28" s="116"/>
     </row>
-    <row r="29" spans="1:25" s="114" customFormat="1" ht="11.5">
+    <row r="29" spans="1:25" s="114" customFormat="1" ht="12">
       <c r="A29" s="157" t="s">
         <v>112</v>
       </c>
@@ -23207,7 +23207,7 @@
       <c r="X29" s="116"/>
       <c r="Y29" s="116"/>
     </row>
-    <row r="30" spans="1:25" s="114" customFormat="1" ht="11.5">
+    <row r="30" spans="1:25" s="114" customFormat="1" ht="12">
       <c r="A30" s="158"/>
       <c r="B30" s="158"/>
       <c r="C30" s="158"/>
@@ -23233,7 +23233,7 @@
       <c r="X30" s="116"/>
       <c r="Y30" s="116"/>
     </row>
-    <row r="31" spans="1:25" s="114" customFormat="1" ht="11.5">
+    <row r="31" spans="1:25" s="114" customFormat="1" ht="12">
       <c r="A31" s="157" t="s">
         <v>127</v>
       </c>
@@ -23261,7 +23261,7 @@
       <c r="X31" s="116"/>
       <c r="Y31" s="116"/>
     </row>
-    <row r="32" spans="1:25" s="114" customFormat="1" ht="11.5">
+    <row r="32" spans="1:25" s="114" customFormat="1" ht="12">
       <c r="A32" s="158"/>
       <c r="B32" s="158"/>
       <c r="C32" s="158"/>
@@ -23287,7 +23287,7 @@
       <c r="X32" s="116"/>
       <c r="Y32" s="116"/>
     </row>
-    <row r="33" spans="1:25" s="114" customFormat="1" ht="11.5">
+    <row r="33" spans="1:25" s="114" customFormat="1" ht="12">
       <c r="A33" s="138" t="s">
         <v>109</v>
       </c>
@@ -23315,7 +23315,7 @@
       <c r="X33" s="116"/>
       <c r="Y33" s="116"/>
     </row>
-    <row r="34" spans="1:25" s="114" customFormat="1" ht="11.5">
+    <row r="34" spans="1:25" s="114" customFormat="1" ht="12">
       <c r="A34" s="159" t="s">
         <v>29</v>
       </c>
@@ -23343,7 +23343,7 @@
       <c r="X34" s="116"/>
       <c r="Y34" s="116"/>
     </row>
-    <row r="35" spans="1:25" s="114" customFormat="1" ht="11.5">
+    <row r="35" spans="1:25" s="114" customFormat="1" ht="12">
       <c r="A35" s="158"/>
       <c r="B35" s="158"/>
       <c r="C35" s="158"/>
@@ -23562,7 +23562,7 @@
       <c r="X42" s="116"/>
       <c r="Y42" s="116"/>
     </row>
-    <row r="43" spans="1:25" s="102" customFormat="1" ht="13">
+    <row r="43" spans="1:25" s="102" customFormat="1">
       <c r="A43" s="132"/>
       <c r="B43" s="130"/>
       <c r="C43" s="130"/>
@@ -23589,7 +23589,7 @@
       <c r="X43" s="116"/>
       <c r="Y43" s="116"/>
     </row>
-    <row r="44" spans="1:25" s="102" customFormat="1" ht="13">
+    <row r="44" spans="1:25" s="102" customFormat="1">
       <c r="A44" s="132"/>
       <c r="B44" s="130"/>
       <c r="C44" s="130"/>
@@ -23616,7 +23616,7 @@
       <c r="X44" s="116"/>
       <c r="Y44" s="116"/>
     </row>
-    <row r="45" spans="1:25" s="102" customFormat="1" ht="13">
+    <row r="45" spans="1:25" s="102" customFormat="1">
       <c r="A45" s="132"/>
       <c r="B45" s="130"/>
       <c r="C45" s="130"/>
@@ -23643,7 +23643,7 @@
       <c r="X45" s="116"/>
       <c r="Y45" s="116"/>
     </row>
-    <row r="46" spans="1:25" s="102" customFormat="1" ht="13">
+    <row r="46" spans="1:25" s="102" customFormat="1">
       <c r="A46" s="132"/>
       <c r="B46" s="130"/>
       <c r="C46" s="130"/>
@@ -23670,7 +23670,7 @@
       <c r="X46" s="116"/>
       <c r="Y46" s="116"/>
     </row>
-    <row r="47" spans="1:25" s="102" customFormat="1" ht="13">
+    <row r="47" spans="1:25" s="102" customFormat="1">
       <c r="A47" s="132"/>
       <c r="B47" s="130"/>
       <c r="C47" s="130"/>
@@ -23697,7 +23697,7 @@
       <c r="X47" s="116"/>
       <c r="Y47" s="116"/>
     </row>
-    <row r="48" spans="1:25" s="102" customFormat="1" ht="13">
+    <row r="48" spans="1:25" s="102" customFormat="1">
       <c r="A48" s="132"/>
       <c r="B48" s="130"/>
       <c r="C48" s="130"/>
@@ -23724,7 +23724,7 @@
       <c r="X48" s="116"/>
       <c r="Y48" s="116"/>
     </row>
-    <row r="49" spans="1:25" s="102" customFormat="1" ht="13">
+    <row r="49" spans="1:25" s="102" customFormat="1">
       <c r="A49" s="132"/>
       <c r="B49" s="130"/>
       <c r="C49" s="130"/>
@@ -23751,7 +23751,7 @@
       <c r="X49" s="116"/>
       <c r="Y49" s="116"/>
     </row>
-    <row r="50" spans="1:25" s="102" customFormat="1" ht="13">
+    <row r="50" spans="1:25" s="102" customFormat="1">
       <c r="A50" s="132"/>
       <c r="B50" s="130"/>
       <c r="C50" s="130"/>
@@ -23778,7 +23778,7 @@
       <c r="X50" s="116"/>
       <c r="Y50" s="116"/>
     </row>
-    <row r="51" spans="1:25" s="102" customFormat="1" ht="13">
+    <row r="51" spans="1:25" s="102" customFormat="1">
       <c r="A51" s="132"/>
       <c r="B51" s="130"/>
       <c r="C51" s="130"/>
@@ -23795,7 +23795,7 @@
       <c r="N51" s="129"/>
       <c r="O51" s="128"/>
     </row>
-    <row r="52" spans="1:25" s="102" customFormat="1" ht="13">
+    <row r="52" spans="1:25" s="102" customFormat="1">
       <c r="A52" s="132"/>
       <c r="B52" s="130"/>
       <c r="C52" s="130"/>
@@ -23812,7 +23812,7 @@
       <c r="N52" s="129"/>
       <c r="O52" s="128"/>
     </row>
-    <row r="53" spans="1:25" s="102" customFormat="1" ht="13">
+    <row r="53" spans="1:25" s="102" customFormat="1">
       <c r="A53" s="132"/>
       <c r="B53" s="130"/>
       <c r="C53" s="130"/>
@@ -23829,7 +23829,7 @@
       <c r="N53" s="129"/>
       <c r="O53" s="128"/>
     </row>
-    <row r="54" spans="1:25" s="102" customFormat="1" ht="13">
+    <row r="54" spans="1:25" s="102" customFormat="1">
       <c r="A54" s="132"/>
       <c r="B54" s="130"/>
       <c r="C54" s="130"/>
@@ -23846,7 +23846,7 @@
       <c r="N54" s="129"/>
       <c r="O54" s="128"/>
     </row>
-    <row r="55" spans="1:25" ht="13">
+    <row r="55" spans="1:25">
       <c r="A55" s="39"/>
       <c r="B55" s="44"/>
       <c r="C55" s="44"/>
@@ -24033,17 +24033,17 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="9.42578125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="21.54296875" customWidth="1"/>
-    <col min="2" max="4" width="10.54296875" customWidth="1"/>
-    <col min="5" max="5" width="1.54296875" customWidth="1"/>
-    <col min="6" max="8" width="10.54296875" customWidth="1"/>
-    <col min="9" max="9" width="1.54296875" customWidth="1"/>
-    <col min="10" max="12" width="10.54296875" customWidth="1"/>
-    <col min="13" max="13" width="1.54296875" customWidth="1"/>
-    <col min="14" max="16" width="10.54296875" customWidth="1"/>
-    <col min="17" max="17" width="1.54296875" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" customWidth="1"/>
+    <col min="2" max="4" width="10.5703125" customWidth="1"/>
+    <col min="5" max="5" width="1.5703125" customWidth="1"/>
+    <col min="6" max="8" width="10.5703125" customWidth="1"/>
+    <col min="9" max="9" width="1.5703125" customWidth="1"/>
+    <col min="10" max="12" width="10.5703125" customWidth="1"/>
+    <col min="13" max="13" width="1.5703125" customWidth="1"/>
+    <col min="14" max="16" width="10.5703125" customWidth="1"/>
+    <col min="17" max="17" width="1.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1">
@@ -24138,7 +24138,7 @@
       <c r="P4" s="160"/>
       <c r="Q4" s="107"/>
     </row>
-    <row r="5" spans="1:17" ht="64" customHeight="1">
+    <row r="5" spans="1:17" ht="63.95" customHeight="1">
       <c r="A5" s="110" t="s">
         <v>122</v>
       </c>
@@ -24183,7 +24183,7 @@
       </c>
       <c r="Q5" s="114"/>
     </row>
-    <row r="6" spans="1:17" ht="16" customHeight="1">
+    <row r="6" spans="1:17" ht="15.95" customHeight="1">
       <c r="A6" s="114" t="s">
         <v>53</v>
       </c>
@@ -24228,7 +24228,7 @@
       </c>
       <c r="Q6" s="114"/>
     </row>
-    <row r="7" spans="1:17" ht="16" customHeight="1">
+    <row r="7" spans="1:17" ht="15.95" customHeight="1">
       <c r="A7" s="114" t="s">
         <v>57</v>
       </c>
@@ -24273,7 +24273,7 @@
       </c>
       <c r="Q7" s="114"/>
     </row>
-    <row r="8" spans="1:17" ht="16" customHeight="1">
+    <row r="8" spans="1:17" ht="15.95" customHeight="1">
       <c r="A8" s="114" t="s">
         <v>11</v>
       </c>
@@ -24318,7 +24318,7 @@
       </c>
       <c r="Q8" s="114"/>
     </row>
-    <row r="9" spans="1:17" ht="16" customHeight="1">
+    <row r="9" spans="1:17" ht="15.95" customHeight="1">
       <c r="A9" s="114" t="s">
         <v>50</v>
       </c>
@@ -24363,7 +24363,7 @@
       </c>
       <c r="Q9" s="114"/>
     </row>
-    <row r="10" spans="1:17" ht="16" customHeight="1">
+    <row r="10" spans="1:17" ht="15.95" customHeight="1">
       <c r="A10" s="114" t="s">
         <v>52</v>
       </c>
@@ -24408,7 +24408,7 @@
       </c>
       <c r="Q10" s="114"/>
     </row>
-    <row r="11" spans="1:17" ht="16" customHeight="1">
+    <row r="11" spans="1:17" ht="15.95" customHeight="1">
       <c r="A11" s="114" t="s">
         <v>44</v>
       </c>
@@ -24453,7 +24453,7 @@
       </c>
       <c r="Q11" s="114"/>
     </row>
-    <row r="12" spans="1:17" ht="16" customHeight="1">
+    <row r="12" spans="1:17" ht="15.95" customHeight="1">
       <c r="A12" s="114" t="s">
         <v>51</v>
       </c>
@@ -24498,7 +24498,7 @@
       </c>
       <c r="Q12" s="114"/>
     </row>
-    <row r="13" spans="1:17" ht="16" customHeight="1">
+    <row r="13" spans="1:17" ht="15.95" customHeight="1">
       <c r="A13" s="114" t="s">
         <v>45</v>
       </c>
@@ -24543,7 +24543,7 @@
       </c>
       <c r="Q13" s="114"/>
     </row>
-    <row r="14" spans="1:17" ht="16" customHeight="1">
+    <row r="14" spans="1:17" ht="15.95" customHeight="1">
       <c r="A14" s="114" t="s">
         <v>46</v>
       </c>
@@ -24588,7 +24588,7 @@
       </c>
       <c r="Q14" s="114"/>
     </row>
-    <row r="15" spans="1:17" ht="16" customHeight="1">
+    <row r="15" spans="1:17" ht="15.95" customHeight="1">
       <c r="A15" s="114" t="s">
         <v>48</v>
       </c>
@@ -24633,7 +24633,7 @@
       </c>
       <c r="Q15" s="114"/>
     </row>
-    <row r="16" spans="1:17" ht="16" customHeight="1">
+    <row r="16" spans="1:17" ht="15.95" customHeight="1">
       <c r="A16" s="114" t="s">
         <v>47</v>
       </c>
@@ -24678,7 +24678,7 @@
       </c>
       <c r="Q16" s="114"/>
     </row>
-    <row r="17" spans="1:17" ht="16" customHeight="1">
+    <row r="17" spans="1:17" ht="15.95" customHeight="1">
       <c r="A17" s="114" t="s">
         <v>54</v>
       </c>
@@ -24723,7 +24723,7 @@
       </c>
       <c r="Q17" s="114"/>
     </row>
-    <row r="18" spans="1:17" ht="16" customHeight="1">
+    <row r="18" spans="1:17" ht="15.95" customHeight="1">
       <c r="A18" s="114" t="s">
         <v>55</v>
       </c>
@@ -24768,7 +24768,7 @@
       </c>
       <c r="Q18" s="114"/>
     </row>
-    <row r="19" spans="1:17" ht="16" customHeight="1">
+    <row r="19" spans="1:17" ht="15.95" customHeight="1">
       <c r="A19" s="114" t="s">
         <v>56</v>
       </c>
@@ -24813,7 +24813,7 @@
       </c>
       <c r="Q19" s="114"/>
     </row>
-    <row r="20" spans="1:17" ht="16" customHeight="1">
+    <row r="20" spans="1:17" ht="15.95" customHeight="1">
       <c r="A20" s="114" t="s">
         <v>49</v>
       </c>
@@ -25257,12 +25257,12 @@
       <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="16384" width="9.1796875" style="52"/>
+    <col min="1" max="16384" width="9.140625" style="52"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="17.5">
+    <row r="1" spans="1:14" ht="18.75">
       <c r="A1" s="9" t="s">
         <v>120</v>
       </c>
@@ -25280,7 +25280,7 @@
       <c r="M1" s="10"/>
       <c r="N1" s="10"/>
     </row>
-    <row r="2" spans="1:14" ht="15.5">
+    <row r="2" spans="1:14" ht="15.75">
       <c r="A2" s="84"/>
       <c r="B2" s="84"/>
       <c r="C2" s="84"/>
@@ -25296,7 +25296,7 @@
       <c r="M2" s="12"/>
       <c r="N2" s="12"/>
     </row>
-    <row r="3" spans="1:14" ht="13" thickBot="1">
+    <row r="3" spans="1:14" ht="13.5" thickBot="1">
       <c r="A3" s="13"/>
       <c r="B3" s="14"/>
       <c r="C3" s="13"/>
@@ -25314,7 +25314,7 @@
       <c r="M3" s="15"/>
       <c r="N3" s="15"/>
     </row>
-    <row r="4" spans="1:14" ht="13" thickTop="1">
+    <row r="4" spans="1:14" ht="13.5" thickTop="1">
       <c r="A4" s="15" t="s">
         <v>0</v>
       </c>
@@ -25340,7 +25340,7 @@
       <c r="M4" s="15"/>
       <c r="N4" s="15"/>
     </row>
-    <row r="5" spans="1:14" ht="48">
+    <row r="5" spans="1:14" ht="49.5">
       <c r="A5" s="18" t="s">
         <v>21</v>
       </c>
@@ -25884,7 +25884,7 @@
       <c r="M20" s="21"/>
       <c r="N20" s="79"/>
     </row>
-    <row r="21" spans="1:14" ht="13" thickBot="1">
+    <row r="21" spans="1:14" ht="13.5" thickBot="1">
       <c r="A21" s="26" t="s">
         <v>28</v>
       </c>
@@ -25918,7 +25918,7 @@
       <c r="M21" s="21"/>
       <c r="N21" s="79"/>
     </row>
-    <row r="22" spans="1:14" ht="13" thickTop="1">
+    <row r="22" spans="1:14" ht="13.5" thickTop="1">
       <c r="A22" s="20"/>
       <c r="B22" s="21"/>
       <c r="C22" s="20"/>
@@ -26178,7 +26178,7 @@
       <c r="J36" s="10"/>
       <c r="L36" s="68"/>
     </row>
-    <row r="37" spans="1:14" ht="13">
+    <row r="37" spans="1:14">
       <c r="A37" s="55" t="s">
         <v>67</v>
       </c>
@@ -26216,12 +26216,12 @@
       <selection sqref="A1:P32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="16384" width="9.1796875" style="52"/>
+    <col min="1" max="16384" width="9.140625" style="52"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.5">
+    <row r="1" spans="1:16" ht="15.75">
       <c r="A1" s="165" t="s">
         <v>121</v>
       </c>
@@ -26241,7 +26241,7 @@
       <c r="O1" s="165"/>
       <c r="P1" s="165"/>
     </row>
-    <row r="2" spans="1:16" ht="15.5">
+    <row r="2" spans="1:16" ht="15.75">
       <c r="A2" s="84"/>
       <c r="B2" s="84"/>
       <c r="C2" s="84"/>
@@ -26259,7 +26259,7 @@
       <c r="O2" s="12"/>
       <c r="P2" s="12"/>
     </row>
-    <row r="3" spans="1:16" ht="13" thickBot="1">
+    <row r="3" spans="1:16" ht="13.5" thickBot="1">
       <c r="A3" s="13"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -26279,7 +26279,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="13" thickTop="1">
+    <row r="4" spans="1:16" ht="13.5" thickTop="1">
       <c r="A4" s="15" t="s">
         <v>0</v>
       </c>
@@ -26307,7 +26307,7 @@
       <c r="O4" s="164"/>
       <c r="P4" s="164"/>
     </row>
-    <row r="5" spans="1:16" ht="59.5">
+    <row r="5" spans="1:16" ht="61.5">
       <c r="A5" s="18" t="s">
         <v>21</v>
       </c>
@@ -27011,7 +27011,7 @@
         <v>85.740163001076624</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="13" thickBot="1">
+    <row r="21" spans="1:16" ht="13.5" thickBot="1">
       <c r="A21" s="26" t="s">
         <v>28</v>
       </c>
@@ -27055,7 +27055,7 @@
         <v>81.762559378876134</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="13" thickTop="1">
+    <row r="22" spans="1:16" ht="13.5" thickTop="1">
       <c r="A22" s="20"/>
       <c r="B22" s="21"/>
       <c r="C22" s="21"/>
@@ -27304,31 +27304,31 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="9.42578125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="22.453125" style="10" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" style="10" customWidth="1"/>
     <col min="2" max="2" width="10" style="11" customWidth="1"/>
     <col min="3" max="3" width="10" style="10" customWidth="1"/>
-    <col min="4" max="4" width="4.54296875" style="10" customWidth="1"/>
+    <col min="4" max="4" width="4.5703125" style="10" customWidth="1"/>
     <col min="5" max="5" width="10" style="11" customWidth="1"/>
     <col min="6" max="6" width="10" style="10" customWidth="1"/>
-    <col min="7" max="7" width="4.453125" style="10" customWidth="1"/>
+    <col min="7" max="7" width="4.42578125" style="10" customWidth="1"/>
     <col min="8" max="8" width="10" style="11" customWidth="1"/>
     <col min="9" max="9" width="10" style="10" customWidth="1"/>
-    <col min="10" max="10" width="4.453125" style="10" customWidth="1"/>
-    <col min="11" max="12" width="11.453125" style="10" customWidth="1"/>
-    <col min="13" max="14" width="9.453125" style="10"/>
-    <col min="15" max="15" width="10.54296875" style="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.453125" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.42578125" style="10" customWidth="1"/>
+    <col min="11" max="12" width="11.42578125" style="10" customWidth="1"/>
+    <col min="13" max="14" width="9.42578125" style="10"/>
+    <col min="15" max="15" width="10.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.42578125" style="10" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="5" style="10" customWidth="1"/>
-    <col min="18" max="18" width="7.453125" style="10" customWidth="1"/>
+    <col min="18" max="18" width="7.42578125" style="10" customWidth="1"/>
     <col min="19" max="20" width="7" style="10" customWidth="1"/>
-    <col min="21" max="21" width="5.54296875" style="10" customWidth="1"/>
-    <col min="22" max="22" width="7.453125" style="10" customWidth="1"/>
-    <col min="23" max="23" width="5.453125" style="10" customWidth="1"/>
-    <col min="24" max="24" width="6.54296875" style="10" customWidth="1"/>
-    <col min="25" max="25" width="6.453125" style="10" customWidth="1"/>
-    <col min="26" max="16384" width="9.453125" style="10"/>
+    <col min="21" max="21" width="5.5703125" style="10" customWidth="1"/>
+    <col min="22" max="22" width="7.42578125" style="10" customWidth="1"/>
+    <col min="23" max="23" width="5.42578125" style="10" customWidth="1"/>
+    <col min="24" max="24" width="6.5703125" style="10" customWidth="1"/>
+    <col min="25" max="25" width="6.42578125" style="10" customWidth="1"/>
+    <col min="26" max="16384" width="9.42578125" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="16.5" customHeight="1">
@@ -28133,14 +28133,14 @@
       <c r="I22" s="24"/>
       <c r="J22" s="24"/>
     </row>
-    <row r="23" spans="1:25" s="20" customFormat="1" ht="11.5">
+    <row r="23" spans="1:25" s="20" customFormat="1" ht="12">
       <c r="A23" s="20" t="s">
         <v>110</v>
       </c>
       <c r="E23" s="21"/>
       <c r="H23" s="21"/>
     </row>
-    <row r="24" spans="1:25" s="20" customFormat="1" ht="11.5">
+    <row r="24" spans="1:25" s="20" customFormat="1" ht="12">
       <c r="A24" s="20" t="s">
         <v>111</v>
       </c>
@@ -28158,7 +28158,7 @@
       <c r="X24" s="21"/>
       <c r="Y24" s="21"/>
     </row>
-    <row r="25" spans="1:25" s="20" customFormat="1" ht="11.5">
+    <row r="25" spans="1:25" s="20" customFormat="1" ht="12">
       <c r="A25" s="20" t="s">
         <v>112</v>
       </c>
@@ -28176,7 +28176,7 @@
       <c r="X25" s="21"/>
       <c r="Y25" s="21"/>
     </row>
-    <row r="26" spans="1:25" s="20" customFormat="1" ht="11.5">
+    <row r="26" spans="1:25" s="20" customFormat="1" ht="12">
       <c r="A26" s="20" t="s">
         <v>95</v>
       </c>
@@ -28194,7 +28194,7 @@
       <c r="X26" s="21"/>
       <c r="Y26" s="21"/>
     </row>
-    <row r="27" spans="1:25" s="20" customFormat="1" ht="11.5">
+    <row r="27" spans="1:25" s="20" customFormat="1" ht="12">
       <c r="A27" s="20" t="s">
         <v>96</v>
       </c>
@@ -28212,7 +28212,7 @@
       <c r="X27" s="21"/>
       <c r="Y27" s="21"/>
     </row>
-    <row r="28" spans="1:25" s="20" customFormat="1" ht="11.5">
+    <row r="28" spans="1:25" s="20" customFormat="1" ht="12">
       <c r="A28" s="20" t="s">
         <v>109</v>
       </c>
@@ -28230,7 +28230,7 @@
       <c r="X28" s="21"/>
       <c r="Y28" s="21"/>
     </row>
-    <row r="29" spans="1:25" s="20" customFormat="1" ht="11.5">
+    <row r="29" spans="1:25" s="20" customFormat="1" ht="12">
       <c r="A29" s="83" t="s">
         <v>113</v>
       </c>
@@ -28255,7 +28255,7 @@
       <c r="X29" s="21"/>
       <c r="Y29" s="21"/>
     </row>
-    <row r="30" spans="1:25" s="20" customFormat="1" ht="11.5">
+    <row r="30" spans="1:25" s="20" customFormat="1" ht="12">
       <c r="A30" s="83" t="s">
         <v>114</v>
       </c>
@@ -28458,7 +28458,7 @@
       <c r="X37" s="21"/>
       <c r="Y37" s="21"/>
     </row>
-    <row r="38" spans="1:25" ht="13">
+    <row r="38" spans="1:25">
       <c r="A38" s="39"/>
       <c r="B38" s="44"/>
       <c r="C38" s="44"/>
@@ -28485,7 +28485,7 @@
       <c r="X38" s="21"/>
       <c r="Y38" s="21"/>
     </row>
-    <row r="39" spans="1:25" ht="13">
+    <row r="39" spans="1:25">
       <c r="A39" s="39"/>
       <c r="B39" s="44"/>
       <c r="C39" s="44"/>
@@ -28512,7 +28512,7 @@
       <c r="X39" s="21"/>
       <c r="Y39" s="21"/>
     </row>
-    <row r="40" spans="1:25" ht="13">
+    <row r="40" spans="1:25">
       <c r="A40" s="39"/>
       <c r="B40" s="44"/>
       <c r="C40" s="44"/>
@@ -28539,7 +28539,7 @@
       <c r="X40" s="21"/>
       <c r="Y40" s="21"/>
     </row>
-    <row r="41" spans="1:25" ht="13">
+    <row r="41" spans="1:25">
       <c r="A41" s="39"/>
       <c r="B41" s="44"/>
       <c r="C41" s="44"/>
@@ -28566,7 +28566,7 @@
       <c r="X41" s="21"/>
       <c r="Y41" s="21"/>
     </row>
-    <row r="42" spans="1:25" ht="13">
+    <row r="42" spans="1:25">
       <c r="A42" s="39"/>
       <c r="B42" s="44"/>
       <c r="C42" s="44"/>
@@ -28593,7 +28593,7 @@
       <c r="X42" s="21"/>
       <c r="Y42" s="21"/>
     </row>
-    <row r="43" spans="1:25" ht="13">
+    <row r="43" spans="1:25">
       <c r="A43" s="39"/>
       <c r="B43" s="44"/>
       <c r="C43" s="44"/>
@@ -28620,7 +28620,7 @@
       <c r="X43" s="21"/>
       <c r="Y43" s="21"/>
     </row>
-    <row r="44" spans="1:25" ht="13">
+    <row r="44" spans="1:25">
       <c r="A44" s="39"/>
       <c r="B44" s="44"/>
       <c r="C44" s="44"/>
@@ -28647,7 +28647,7 @@
       <c r="X44" s="21"/>
       <c r="Y44" s="21"/>
     </row>
-    <row r="45" spans="1:25" ht="13">
+    <row r="45" spans="1:25">
       <c r="A45" s="39"/>
       <c r="B45" s="44"/>
       <c r="C45" s="44"/>
@@ -28674,7 +28674,7 @@
       <c r="X45" s="21"/>
       <c r="Y45" s="21"/>
     </row>
-    <row r="46" spans="1:25" ht="13">
+    <row r="46" spans="1:25">
       <c r="A46" s="39"/>
       <c r="B46" s="44"/>
       <c r="C46" s="44"/>
@@ -28691,7 +28691,7 @@
       <c r="N46"/>
       <c r="O46" s="40"/>
     </row>
-    <row r="47" spans="1:25" ht="13">
+    <row r="47" spans="1:25">
       <c r="A47" s="39"/>
       <c r="B47" s="44"/>
       <c r="C47" s="44"/>
@@ -28708,7 +28708,7 @@
       <c r="N47"/>
       <c r="O47" s="40"/>
     </row>
-    <row r="48" spans="1:25" ht="13">
+    <row r="48" spans="1:25">
       <c r="A48" s="39"/>
       <c r="B48" s="44"/>
       <c r="C48" s="44"/>
@@ -28725,7 +28725,7 @@
       <c r="N48"/>
       <c r="O48" s="40"/>
     </row>
-    <row r="49" spans="1:15" ht="13">
+    <row r="49" spans="1:15">
       <c r="A49" s="39"/>
       <c r="B49" s="44"/>
       <c r="C49" s="44"/>
@@ -28742,7 +28742,7 @@
       <c r="N49"/>
       <c r="O49" s="40"/>
     </row>
-    <row r="50" spans="1:15" ht="13">
+    <row r="50" spans="1:15">
       <c r="A50" s="39"/>
       <c r="B50" s="44"/>
       <c r="C50" s="44"/>
